--- a/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2501 +411,2701 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="B2">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>0.004413929786342788</v>
+        <v>-0.05018068611057414</v>
       </c>
       <c r="D2">
-        <v>-3.715211737824142</v>
+        <v>-3.769529331840137</v>
       </c>
       <c r="E2">
-        <v>3.724039597396827</v>
+        <v>3.669167959618989</v>
       </c>
       <c r="F2">
-        <v>-1.275889153906107</v>
+        <v>2.621345132835451</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B3">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C3">
-        <v>0.03599149614096087</v>
+        <v>-0.06125151658202177</v>
       </c>
       <c r="D3">
-        <v>-3.683242013872431</v>
+        <v>-3.781307659013267</v>
       </c>
       <c r="E3">
-        <v>3.755225006154352</v>
+        <v>3.658804625849223</v>
       </c>
       <c r="F3">
-        <v>-0.3859628835343187</v>
+        <v>-1.245729595446399</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="B4">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C4">
-        <v>-0.003470486038052861</v>
+        <v>0.06337084540904125</v>
       </c>
       <c r="D4">
-        <v>-3.722020089944776</v>
+        <v>-3.656244226170403</v>
       </c>
       <c r="E4">
-        <v>3.71507911786867</v>
+        <v>3.782985916988486</v>
       </c>
       <c r="F4">
-        <v>0.07158708874701603</v>
+        <v>-2.279300952855756</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B5">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C5">
-        <v>-0.0006811678836191638</v>
+        <v>0.044853413689808</v>
       </c>
       <c r="D5">
-        <v>-3.718512854894635</v>
+        <v>-3.675139507893548</v>
       </c>
       <c r="E5">
-        <v>3.717150519127396</v>
+        <v>3.764846335273164</v>
       </c>
       <c r="F5">
-        <v>-1.49966761540874</v>
+        <v>-3.534351299258276</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="B6">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>0.04469354024750916</v>
+        <v>0.08778613897624399</v>
       </c>
       <c r="D6">
-        <v>-3.672868353991792</v>
+        <v>-3.63404863370108</v>
       </c>
       <c r="E6">
-        <v>3.76225543448681</v>
+        <v>3.809620911653568</v>
       </c>
       <c r="F6">
-        <v>-1.301473367783501</v>
+        <v>2.097565825273051</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="B7">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="C7">
-        <v>0.01983606759585266</v>
+        <v>-0.1008420056948547</v>
       </c>
       <c r="D7">
-        <v>-3.697369214588702</v>
+        <v>-3.822762982513996</v>
       </c>
       <c r="E7">
-        <v>3.737041349780407</v>
+        <v>3.621078971124287</v>
       </c>
       <c r="F7">
-        <v>-0.1178203376353437</v>
+        <v>2.31190762162008</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="B8">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="C8">
-        <v>-0.004772636057482543</v>
+        <v>-0.02864289510715823</v>
       </c>
       <c r="D8">
-        <v>-3.721263733454803</v>
+        <v>-3.751006179816042</v>
       </c>
       <c r="E8">
-        <v>3.711718461339837</v>
+        <v>3.693720389601726</v>
       </c>
       <c r="F8">
-        <v>-1.335133317486381</v>
+        <v>0.6123194638897544</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="B9">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="C9">
-        <v>0.0412398950008791</v>
+        <v>-0.006644964006844001</v>
       </c>
       <c r="D9">
-        <v>-3.674886888204967</v>
+        <v>-3.728368684138239</v>
       </c>
       <c r="E9">
-        <v>3.757366678206726</v>
+        <v>3.715078756124552</v>
       </c>
       <c r="F9">
-        <v>2.768954516211863</v>
+        <v>0.2552106872235171</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="B10">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="C10">
-        <v>-0.09968236921915974</v>
+        <v>-0.004821858430066231</v>
       </c>
       <c r="D10">
-        <v>-3.816576040229637</v>
+        <v>-3.725838249370148</v>
       </c>
       <c r="E10">
-        <v>3.617211301791318</v>
+        <v>3.716194532510015</v>
       </c>
       <c r="F10">
-        <v>-0.4659297887419811</v>
+        <v>0.494386203665087</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B11">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="C11">
-        <v>0.0552294916148478</v>
+        <v>-0.01266070505983424</v>
       </c>
       <c r="D11">
-        <v>-3.660973838931024</v>
+        <v>-3.733006269052904</v>
       </c>
       <c r="E11">
-        <v>3.771432822160719</v>
+        <v>3.707684858933236</v>
       </c>
       <c r="F11">
-        <v>-0.9826287175041415</v>
+        <v>0.02817695144035071</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="B12">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="C12">
-        <v>0.00706895495302079</v>
+        <v>0.004413929786342788</v>
       </c>
       <c r="D12">
-        <v>-3.708632498370262</v>
+        <v>-3.715211737824142</v>
       </c>
       <c r="E12">
-        <v>3.722770408276304</v>
+        <v>3.724039597396827</v>
       </c>
       <c r="F12">
-        <v>2.575249610241492</v>
+        <v>-1.275889153906107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="B13">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="C13">
-        <v>-0.08095770751653419</v>
+        <v>0.03599149614096087</v>
       </c>
       <c r="D13">
-        <v>-3.797256988639085</v>
+        <v>-3.683242013872431</v>
       </c>
       <c r="E13">
-        <v>3.635341573606017</v>
+        <v>3.755225006154352</v>
       </c>
       <c r="F13">
-        <v>-1.665618925032142</v>
+        <v>-0.3859628835343187</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="B14">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>0.08271997757795069</v>
+        <v>-0.003470486038052861</v>
       </c>
       <c r="D14">
-        <v>-3.633363172306469</v>
+        <v>-3.722020089944776</v>
       </c>
       <c r="E14">
-        <v>3.79880312746237</v>
+        <v>3.71507911786867</v>
       </c>
       <c r="F14">
-        <v>-0.08766803600650519</v>
+        <v>0.07158708874701603</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="B15">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C15">
-        <v>-0.02917063086054528</v>
+        <v>-0.0006811678836191638</v>
       </c>
       <c r="D15">
-        <v>-3.744543768361359</v>
+        <v>-3.718512854894635</v>
       </c>
       <c r="E15">
-        <v>3.686202506640269</v>
+        <v>3.717150519127396</v>
       </c>
       <c r="F15">
-        <v>-2.037873240304044</v>
+        <v>-1.49966761540874</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="B16">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C16">
-        <v>0.07427507399027911</v>
+        <v>0.04469354024750916</v>
       </c>
       <c r="D16">
-        <v>-3.641185091560629</v>
+        <v>-3.672868353991792</v>
       </c>
       <c r="E16">
-        <v>3.789735239541186</v>
+        <v>3.76225543448681</v>
       </c>
       <c r="F16">
-        <v>-1.59401871350866</v>
+        <v>-1.301473367783501</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="B17">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="C17">
-        <v>0.01938210345275648</v>
+        <v>0.01983606759585266</v>
       </c>
       <c r="D17">
-        <v>-3.6959166329189</v>
+        <v>-3.697369214588702</v>
       </c>
       <c r="E17">
-        <v>3.734680839824413</v>
+        <v>3.737041349780407</v>
       </c>
       <c r="F17">
-        <v>-0.883075166159486</v>
+        <v>-0.1178203376353437</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="B18">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="C18">
-        <v>0.01911282417283083</v>
+        <v>-0.004772636057482543</v>
       </c>
       <c r="D18">
-        <v>-3.695632822712261</v>
+        <v>-3.721263733454803</v>
       </c>
       <c r="E18">
-        <v>3.733858471057923</v>
+        <v>3.711718461339837</v>
       </c>
       <c r="F18">
-        <v>0.6098509524722573</v>
+        <v>-1.335133317486381</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="B19">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="C19">
-        <v>-0.02600963654004976</v>
+        <v>0.0412398950008791</v>
       </c>
       <c r="D19">
-        <v>-3.740110235949098</v>
+        <v>-3.674886888204967</v>
       </c>
       <c r="E19">
-        <v>3.688090962868999</v>
+        <v>3.757366678206726</v>
       </c>
       <c r="F19">
-        <v>-0.6710411027675889</v>
+        <v>2.768954516211863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="B20">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="C20">
-        <v>0.03065504356924043</v>
+        <v>-0.09968236921915974</v>
       </c>
       <c r="D20">
-        <v>-3.682814227151014</v>
+        <v>-3.816576040229637</v>
       </c>
       <c r="E20">
-        <v>3.744124314289495</v>
+        <v>3.617211301791318</v>
       </c>
       <c r="F20">
-        <v>1.894713747611299</v>
+        <v>-0.4659297887419811</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="B21">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="C21">
-        <v>-0.06981164845774257</v>
+        <v>0.0552294916148478</v>
       </c>
       <c r="D21">
-        <v>-3.783257913719768</v>
+        <v>-3.660973838931024</v>
       </c>
       <c r="E21">
-        <v>3.643634616804283</v>
+        <v>3.771432822160719</v>
       </c>
       <c r="F21">
-        <v>0.1500375375233176</v>
+        <v>-0.9826287175041415</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="B22">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="C22">
-        <v>0.0234505551889241</v>
+        <v>0.00706895495302079</v>
       </c>
       <c r="D22">
-        <v>-3.689291948993918</v>
+        <v>-3.708632498370262</v>
       </c>
       <c r="E22">
-        <v>3.736193059371767</v>
+        <v>3.722770408276304</v>
       </c>
       <c r="F22">
-        <v>1.221889736612525</v>
+        <v>2.575249610241492</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="B23">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="C23">
-        <v>-0.04667850989721078</v>
+        <v>-0.08095770751653419</v>
       </c>
       <c r="D23">
-        <v>-3.758993191256509</v>
+        <v>-3.797256988639085</v>
       </c>
       <c r="E23">
-        <v>3.665636171462088</v>
+        <v>3.635341573606017</v>
       </c>
       <c r="F23">
-        <v>0.7230902899845404</v>
+        <v>-1.665618925032142</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="B24">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="C24">
-        <v>-0.003045700581036537</v>
+        <v>0.08271997757795069</v>
       </c>
       <c r="D24">
-        <v>-3.714765516683935</v>
+        <v>-3.633363172306469</v>
       </c>
       <c r="E24">
-        <v>3.708674115521862</v>
+        <v>3.79880312746237</v>
       </c>
       <c r="F24">
-        <v>-2.215209886282032</v>
+        <v>-0.08766803600650519</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B25">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="C25">
-        <v>0.068687190310741</v>
+        <v>-0.02917063086054528</v>
       </c>
       <c r="D25">
-        <v>-3.6432923073987</v>
+        <v>-3.744543768361359</v>
       </c>
       <c r="E25">
-        <v>3.780666688020183</v>
+        <v>3.686202506640269</v>
       </c>
       <c r="F25">
-        <v>-0.3463598071427043</v>
+        <v>-2.037873240304044</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B26">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C26">
-        <v>-0.01672788064149877</v>
+        <v>0.07427507399027911</v>
       </c>
       <c r="D26">
-        <v>-3.728029490904799</v>
+        <v>-3.641185091560629</v>
       </c>
       <c r="E26">
-        <v>3.694573729621802</v>
+        <v>3.789735239541186</v>
       </c>
       <c r="F26">
-        <v>0.5716020376668851</v>
+        <v>-1.59401871350866</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="B27">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="C27">
-        <v>-0.01068945145464684</v>
+        <v>0.01938210345275648</v>
       </c>
       <c r="D27">
-        <v>-3.721348218668696</v>
+        <v>-3.6959166329189</v>
       </c>
       <c r="E27">
-        <v>3.699969315759403</v>
+        <v>3.734680839824413</v>
       </c>
       <c r="F27">
-        <v>-0.6621544133080803</v>
+        <v>-0.883075166159486</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B28">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="C28">
-        <v>0.02429650708013059</v>
+        <v>0.01911282417283083</v>
       </c>
       <c r="D28">
-        <v>-3.685735330023641</v>
+        <v>-3.695632822712261</v>
       </c>
       <c r="E28">
-        <v>3.734328344183902</v>
+        <v>3.733858471057923</v>
       </c>
       <c r="F28">
-        <v>0.06037736032471486</v>
+        <v>0.6098509524722573</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="B29">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="C29">
-        <v>-0.01141634297436266</v>
+        <v>-0.02600963654004976</v>
       </c>
       <c r="D29">
-        <v>-3.720737637223019</v>
+        <v>-3.740110235949098</v>
       </c>
       <c r="E29">
-        <v>3.697904951274294</v>
+        <v>3.688090962868999</v>
       </c>
       <c r="F29">
-        <v>0.4216238740985645</v>
+        <v>-0.6710411027675889</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C30">
-        <v>-0.008266596343144778</v>
+        <v>0.03065504356924043</v>
       </c>
       <c r="D30">
-        <v>-3.716914707939887</v>
+        <v>-3.682814227151014</v>
       </c>
       <c r="E30">
-        <v>3.700381515253597</v>
+        <v>3.744124314289495</v>
       </c>
       <c r="F30">
-        <v>0.180153178884801</v>
+        <v>1.894713747611299</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="B31">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="C31">
-        <v>-0.002193723909245174</v>
+        <v>-0.06981164845774257</v>
       </c>
       <c r="D31">
-        <v>-3.710138874780163</v>
+        <v>-3.783257913719768</v>
       </c>
       <c r="E31">
-        <v>3.705751426961673</v>
+        <v>3.643634616804283</v>
       </c>
       <c r="F31">
-        <v>-4.462904214801</v>
+        <v>0.1500375375233176</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B32">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="C32">
-        <v>0.1360643599740534</v>
+        <v>0.0234505551889241</v>
       </c>
       <c r="D32">
-        <v>-3.575114601423265</v>
+        <v>-3.689291948993918</v>
       </c>
       <c r="E32">
-        <v>3.847243321371372</v>
+        <v>3.736193059371767</v>
       </c>
       <c r="F32">
-        <v>-3.576370928456996</v>
+        <v>1.221889736612525</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="B33">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="C33">
-        <v>0.0499442081875221</v>
+        <v>-0.04667850989721078</v>
       </c>
       <c r="D33">
-        <v>-3.663247361438549</v>
+        <v>-3.758993191256509</v>
       </c>
       <c r="E33">
-        <v>3.763135777813593</v>
+        <v>3.665636171462088</v>
       </c>
       <c r="F33">
-        <v>0.8417013110948446</v>
+        <v>0.7230902899845404</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="B34">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C34">
-        <v>-0.04483356416599449</v>
+        <v>-0.003045700581036537</v>
       </c>
       <c r="D34">
-        <v>-3.757439145086909</v>
+        <v>-3.714765516683935</v>
       </c>
       <c r="E34">
-        <v>3.66777201675492</v>
+        <v>3.708674115521862</v>
       </c>
       <c r="F34">
-        <v>-0.4199650817902523</v>
+        <v>-2.215209886282032</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B35">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="C35">
-        <v>0.03012651295433177</v>
+        <v>0.068687190310741</v>
       </c>
       <c r="D35">
-        <v>-3.681797249466674</v>
+        <v>-3.6432923073987</v>
       </c>
       <c r="E35">
-        <v>3.742050275375338</v>
+        <v>3.780666688020183</v>
       </c>
       <c r="F35">
-        <v>-0.3892317596539741</v>
+        <v>-0.3463598071427043</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B36">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="C36">
-        <v>-0.0007658740302186329</v>
+        <v>-0.01672788064149877</v>
       </c>
       <c r="D36">
-        <v>-3.712015175465686</v>
+        <v>-3.728029490904799</v>
       </c>
       <c r="E36">
-        <v>3.710483427405248</v>
+        <v>3.694573729621802</v>
       </c>
       <c r="F36">
-        <v>-0.9305429974171275</v>
+        <v>0.5716020376668851</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="B37">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="C37">
-        <v>0.02720912882806742</v>
+        <v>-0.01068945145464684</v>
       </c>
       <c r="D37">
-        <v>-3.683502131512728</v>
+        <v>-3.721348218668696</v>
       </c>
       <c r="E37">
-        <v>3.737920389168863</v>
+        <v>3.699969315759403</v>
       </c>
       <c r="F37">
-        <v>-0.8730802515184877</v>
+        <v>-0.6621544133080803</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="B38">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C38">
-        <v>0.01423198598233072</v>
+        <v>0.02429650708013059</v>
       </c>
       <c r="D38">
-        <v>-3.695931013625908</v>
+        <v>-3.685735330023641</v>
       </c>
       <c r="E38">
-        <v>3.724394985590569</v>
+        <v>3.734328344183902</v>
       </c>
       <c r="F38">
-        <v>-0.730657518243838</v>
+        <v>0.06037736032471486</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="B39">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="C39">
-        <v>0.01528604123999378</v>
+        <v>-0.01141634297436266</v>
       </c>
       <c r="D39">
-        <v>-3.694278430155139</v>
+        <v>-3.720737637223019</v>
       </c>
       <c r="E39">
-        <v>3.724850512635126</v>
+        <v>3.697904951274294</v>
       </c>
       <c r="F39">
-        <v>0.796816964917646</v>
+        <v>0.4216238740985645</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B40">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="C40">
-        <v>-0.02909692102730477</v>
+        <v>-0.008266596343144778</v>
       </c>
       <c r="D40">
-        <v>-3.738074355187349</v>
+        <v>-3.716914707939887</v>
       </c>
       <c r="E40">
-        <v>3.679880513132739</v>
+        <v>3.700381515253597</v>
       </c>
       <c r="F40">
-        <v>-1.700891430132678</v>
+        <v>0.180153178884801</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="B41">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="C41">
-        <v>0.06097910945992535</v>
+        <v>-0.002193723909245174</v>
       </c>
       <c r="D41">
-        <v>-3.647843010017915</v>
+        <v>-3.710138874780163</v>
       </c>
       <c r="E41">
-        <v>3.769801228937766</v>
+        <v>3.705751426961673</v>
       </c>
       <c r="F41">
-        <v>0.5534605322862873</v>
+        <v>-4.462904214801</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="B42">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C42">
-        <v>-0.04072798553990853</v>
+        <v>0.1360643599740534</v>
       </c>
       <c r="D42">
-        <v>-3.748890925847802</v>
+        <v>-3.575114601423265</v>
       </c>
       <c r="E42">
-        <v>3.667434954767986</v>
+        <v>3.847243321371372</v>
       </c>
       <c r="F42">
-        <v>-0.6039273514243604</v>
+        <v>-3.576370928456996</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="B43">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="C43">
-        <v>0.03412157577968974</v>
+        <v>0.0499442081875221</v>
       </c>
       <c r="D43">
-        <v>-3.673397253046782</v>
+        <v>-3.663247361438549</v>
       </c>
       <c r="E43">
-        <v>3.741640404606161</v>
+        <v>3.763135777813593</v>
       </c>
       <c r="F43">
-        <v>0.01682510309333196</v>
+        <v>0.8417013110948446</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B44">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="C44">
-        <v>-0.01430834400688961</v>
+        <v>-0.04483356416599449</v>
       </c>
       <c r="D44">
-        <v>-3.72112097248142</v>
+        <v>-3.757439145086909</v>
       </c>
       <c r="E44">
-        <v>3.692504284467641</v>
+        <v>3.66777201675492</v>
       </c>
       <c r="F44">
-        <v>0.7375159141924215</v>
+        <v>-0.4199650817902523</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="B45">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C45">
-        <v>-0.01572497833689118</v>
+        <v>0.03012651295433177</v>
       </c>
       <c r="D45">
-        <v>-3.721943367581461</v>
+        <v>-3.681797249466674</v>
       </c>
       <c r="E45">
-        <v>3.690493410907679</v>
+        <v>3.742050275375338</v>
       </c>
       <c r="F45">
-        <v>-1.125211300774254</v>
+        <v>-0.3892317596539741</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B46">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C46">
-        <v>0.03915227174578018</v>
+        <v>-0.0007658740302186329</v>
       </c>
       <c r="D46">
-        <v>-3.666603591031458</v>
+        <v>-3.712015175465686</v>
       </c>
       <c r="E46">
-        <v>3.744908134523018</v>
+        <v>3.710483427405248</v>
       </c>
       <c r="F46">
-        <v>1.208676792640873</v>
+        <v>-0.9305429974171275</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="B47">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="C47">
-        <v>-0.05110086999282915</v>
+        <v>0.02720912882806742</v>
       </c>
       <c r="D47">
-        <v>-3.756421416937539</v>
+        <v>-3.683502131512728</v>
       </c>
       <c r="E47">
-        <v>3.654219676951881</v>
+        <v>3.737920389168863</v>
       </c>
       <c r="F47">
-        <v>1.982552957054118</v>
+        <v>-0.8730802515184877</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B48">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C48">
-        <v>-0.03747840668920033</v>
+        <v>0.01423198598233072</v>
       </c>
       <c r="D48">
-        <v>-3.7429095887922</v>
+        <v>-3.695931013625908</v>
       </c>
       <c r="E48">
-        <v>3.6679527754138</v>
+        <v>3.724394985590569</v>
       </c>
       <c r="F48">
-        <v>0.652211671176417</v>
+        <v>-0.730657518243838</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="B49">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="C49">
-        <v>-0.004001091280856239</v>
+        <v>0.01528604123999378</v>
       </c>
       <c r="D49">
-        <v>-3.708821360022118</v>
+        <v>-3.694278430155139</v>
       </c>
       <c r="E49">
-        <v>3.700819177460406</v>
+        <v>3.724850512635126</v>
       </c>
       <c r="F49">
-        <v>-1.870133243258998</v>
+        <v>0.796816964917646</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="B50">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C50">
-        <v>0.05570244353493214</v>
+        <v>-0.02909692102730477</v>
       </c>
       <c r="D50">
-        <v>-3.649100033483509</v>
+        <v>-3.738074355187349</v>
       </c>
       <c r="E50">
-        <v>3.760504920553373</v>
+        <v>3.679880513132739</v>
       </c>
       <c r="F50">
-        <v>2.032523665434205</v>
+        <v>-1.700891430132678</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="B51">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="C51">
-        <v>-0.08190248215994989</v>
+        <v>0.06097910945992535</v>
       </c>
       <c r="D51">
-        <v>-3.786770737365322</v>
+        <v>-3.647843010017915</v>
       </c>
       <c r="E51">
-        <v>3.622965773045423</v>
+        <v>3.769801228937766</v>
       </c>
       <c r="F51">
-        <v>-1.487563188677754</v>
+        <v>0.5534605322862873</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B52">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="C52">
-        <v>0.07696844417457527</v>
+        <v>-0.04072798553990853</v>
       </c>
       <c r="D52">
-        <v>-3.627584981250774</v>
+        <v>-3.748890925847802</v>
       </c>
       <c r="E52">
-        <v>3.781521869599924</v>
+        <v>3.667434954767986</v>
       </c>
       <c r="F52">
-        <v>0.5256253888827445</v>
+        <v>-0.6039273514243604</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="B53">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C53">
-        <v>-0.04643169398443692</v>
+        <v>0.03412157577968974</v>
       </c>
       <c r="D53">
-        <v>-3.750321368839683</v>
+        <v>-3.673397253046782</v>
       </c>
       <c r="E53">
-        <v>3.657457980870809</v>
+        <v>3.741640404606161</v>
       </c>
       <c r="F53">
-        <v>-0.8555498056045607</v>
+        <v>0.01682510309333196</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B54">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C54">
-        <v>0.04440019432852277</v>
+        <v>-0.01430834400688961</v>
       </c>
       <c r="D54">
-        <v>-3.65891520505894</v>
+        <v>-3.72112097248142</v>
       </c>
       <c r="E54">
-        <v>3.747715593715986</v>
+        <v>3.692504284467641</v>
       </c>
       <c r="F54">
-        <v>0.1321004155112604</v>
+        <v>0.7375159141924215</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="B55">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="C55">
-        <v>-0.02184713141374573</v>
+        <v>-0.01572497833689118</v>
       </c>
       <c r="D55">
-        <v>-3.724461514386383</v>
+        <v>-3.721943367581461</v>
       </c>
       <c r="E55">
-        <v>3.680767251558891</v>
+        <v>3.690493410907679</v>
       </c>
       <c r="F55">
-        <v>-0.6456441598912122</v>
+        <v>-1.125211300774254</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B56">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="C56">
-        <v>0.0281652582581508</v>
+        <v>0.03915227174578018</v>
       </c>
       <c r="D56">
-        <v>-3.673823458187067</v>
+        <v>-3.666603591031458</v>
       </c>
       <c r="E56">
-        <v>3.730153974703368</v>
+        <v>3.744908134523018</v>
       </c>
       <c r="F56">
-        <v>0.4804913560439772</v>
+        <v>1.208676792640873</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="B57">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="C57">
-        <v>-0.02579815804134755</v>
+        <v>-0.05110086999282915</v>
       </c>
       <c r="D57">
-        <v>-3.727125345919013</v>
+        <v>-3.756421416937539</v>
       </c>
       <c r="E57">
-        <v>3.675529029836318</v>
+        <v>3.654219676951881</v>
       </c>
       <c r="F57">
-        <v>0.3629768050577908</v>
+        <v>1.982552957054118</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C58">
-        <v>-0.0003580437922984792</v>
+        <v>-0.03747840668920033</v>
       </c>
       <c r="D58">
-        <v>-3.701013643812056</v>
+        <v>-3.7429095887922</v>
       </c>
       <c r="E58">
-        <v>3.700297556227459</v>
+        <v>3.6679527754138</v>
       </c>
       <c r="F58">
-        <v>-1.35966279659705</v>
+        <v>0.652211671176417</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="B59">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="C59">
-        <v>0.04076308823029051</v>
+        <v>-0.004001091280856239</v>
       </c>
       <c r="D59">
-        <v>-3.659554963701831</v>
+        <v>-3.708821360022118</v>
       </c>
       <c r="E59">
-        <v>3.741081140162413</v>
+        <v>3.700819177460406</v>
       </c>
       <c r="F59">
-        <v>-1.547810173427244</v>
+        <v>-1.870133243258998</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B60">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="C60">
-        <v>0.02940522304926019</v>
+        <v>0.05570244353493214</v>
       </c>
       <c r="D60">
-        <v>-3.67070804823881</v>
+        <v>-3.649100033483509</v>
       </c>
       <c r="E60">
-        <v>3.72951849433733</v>
+        <v>3.760504920553373</v>
       </c>
       <c r="F60">
-        <v>-2.558738375193137</v>
+        <v>2.032523665434205</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="B61">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="C61">
-        <v>0.06295828238814072</v>
+        <v>-0.08190248215994989</v>
       </c>
       <c r="D61">
-        <v>-3.637770360831729</v>
+        <v>-3.786770737365322</v>
       </c>
       <c r="E61">
-        <v>3.763686925608011</v>
+        <v>3.622965773045423</v>
       </c>
       <c r="F61">
-        <v>1.141485932947361</v>
+        <v>-1.487563188677754</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="B62">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C62">
-        <v>-0.05971047206252961</v>
+        <v>0.07696844417457527</v>
       </c>
       <c r="D62">
-        <v>-3.759967387422408</v>
+        <v>-3.627584981250774</v>
       </c>
       <c r="E62">
-        <v>3.64054644329735</v>
+        <v>3.781521869599924</v>
       </c>
       <c r="F62">
-        <v>-1.647198057892041</v>
+        <v>0.5256253888827445</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="B63">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="C63">
-        <v>0.07383885979112526</v>
+        <v>-0.04643169398443692</v>
       </c>
       <c r="D63">
-        <v>-3.626212821024611</v>
+        <v>-3.750321368839683</v>
       </c>
       <c r="E63">
-        <v>3.773890540606862</v>
+        <v>3.657457980870809</v>
       </c>
       <c r="F63">
-        <v>1.147240116223713</v>
+        <v>-0.8555498056045607</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="B64">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="C64">
-        <v>-0.06520353768034653</v>
+        <v>0.04440019432852277</v>
       </c>
       <c r="D64">
-        <v>-3.764781632221608</v>
+        <v>-3.65891520505894</v>
       </c>
       <c r="E64">
-        <v>3.634374556860915</v>
+        <v>3.747715593715986</v>
       </c>
       <c r="F64">
-        <v>1.611555535659193</v>
+        <v>0.1321004155112604</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="B65">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C65">
-        <v>-0.0218615098902788</v>
+        <v>-0.02184713141374573</v>
       </c>
       <c r="D65">
-        <v>-3.721292070296061</v>
+        <v>-3.724461514386383</v>
       </c>
       <c r="E65">
-        <v>3.677569050515503</v>
+        <v>3.680767251558891</v>
       </c>
       <c r="F65">
-        <v>-2.044569116029038</v>
+        <v>-0.6456441598912122</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="B66">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="C66">
-        <v>0.07069677134467434</v>
+        <v>0.0281652582581508</v>
       </c>
       <c r="D66">
-        <v>-3.62883735123707</v>
+        <v>-3.673823458187067</v>
       </c>
       <c r="E66">
-        <v>3.770230893926418</v>
+        <v>3.730153974703368</v>
       </c>
       <c r="F66">
-        <v>0.7436264271696302</v>
+        <v>0.4804913560439772</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="B67">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="C67">
-        <v>-0.05042849951913325</v>
+        <v>-0.02579815804134755</v>
       </c>
       <c r="D67">
-        <v>-3.749352810787674</v>
+        <v>-3.727125345919013</v>
       </c>
       <c r="E67">
-        <v>3.648495811749407</v>
+        <v>3.675529029836318</v>
       </c>
       <c r="F67">
-        <v>-3.274962147164651</v>
+        <v>0.3629768050577908</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B68">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="C68">
-        <v>0.1206864004233286</v>
+        <v>-0.0003580437922984792</v>
       </c>
       <c r="D68">
-        <v>-3.579576836491408</v>
+        <v>-3.701013643812056</v>
       </c>
       <c r="E68">
-        <v>3.820949637338066</v>
+        <v>3.700297556227459</v>
       </c>
       <c r="F68">
-        <v>-0.6608937157075445</v>
+        <v>-1.35966279659705</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="B69">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="C69">
-        <v>-0.02778797521987131</v>
+        <v>0.04076308823029051</v>
       </c>
       <c r="D69">
-        <v>-3.727472560633507</v>
+        <v>-3.659554963701831</v>
       </c>
       <c r="E69">
-        <v>3.671896610193765</v>
+        <v>3.741081140162413</v>
       </c>
       <c r="F69">
-        <v>-0.6652905955551347</v>
+        <v>-1.547810173427244</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="B70">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="C70">
-        <v>0.0316098231104352</v>
+        <v>0.02940522304926019</v>
       </c>
       <c r="D70">
-        <v>-3.66745631483841</v>
+        <v>-3.67070804823881</v>
       </c>
       <c r="E70">
-        <v>3.730675961059281</v>
+        <v>3.72951849433733</v>
       </c>
       <c r="F70">
-        <v>-1.380585052480576</v>
+        <v>-2.558738375193137</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="B71">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="C71">
-        <v>0.02941521299229932</v>
+        <v>0.06295828238814072</v>
       </c>
       <c r="D71">
-        <v>-3.669344020913644</v>
+        <v>-3.637770360831729</v>
       </c>
       <c r="E71">
-        <v>3.728174446898243</v>
+        <v>3.763686925608011</v>
       </c>
       <c r="F71">
-        <v>1.902403600469604</v>
+        <v>1.141485932947361</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="B72">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="C72">
-        <v>-0.06995180973886805</v>
+        <v>-0.05971047206252961</v>
       </c>
       <c r="D72">
-        <v>-3.768700595822705</v>
+        <v>-3.759967387422408</v>
       </c>
       <c r="E72">
-        <v>3.628796976344969</v>
+        <v>3.64054644329735</v>
       </c>
       <c r="F72">
-        <v>-0.6301218076728787</v>
+        <v>-1.647198057892041</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="B73">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="C73">
-        <v>0.04676407314623737</v>
+        <v>0.07383885979112526</v>
       </c>
       <c r="D73">
-        <v>-3.651349222331655</v>
+        <v>-3.626212821024611</v>
       </c>
       <c r="E73">
-        <v>3.74487736862413</v>
+        <v>3.773890540606862</v>
       </c>
       <c r="F73">
-        <v>0.2345089917513477</v>
+        <v>1.147240116223713</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="B74">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="C74">
-        <v>-0.02544510795192358</v>
+        <v>-0.06520353768034653</v>
       </c>
       <c r="D74">
-        <v>-3.722868807070312</v>
+        <v>-3.764781632221608</v>
       </c>
       <c r="E74">
-        <v>3.671978591166465</v>
+        <v>3.634374556860915</v>
       </c>
       <c r="F74">
-        <v>0.03602954461605634</v>
+        <v>1.611555535659193</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="B75">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="C75">
-        <v>0.008817065354647801</v>
+        <v>-0.0218615098902788</v>
       </c>
       <c r="D75">
-        <v>-3.687911262866609</v>
+        <v>-3.721292070296061</v>
       </c>
       <c r="E75">
-        <v>3.705545393575905</v>
+        <v>3.677569050515503</v>
       </c>
       <c r="F75">
-        <v>-1.46968081228156</v>
+        <v>-2.044569116029038</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="B76">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="C76">
-        <v>0.04178597829378761</v>
+        <v>0.07069677134467434</v>
       </c>
       <c r="D76">
-        <v>-3.654674230728046</v>
+        <v>-3.62883735123707</v>
       </c>
       <c r="E76">
-        <v>3.738246187315621</v>
+        <v>3.770230893926418</v>
       </c>
       <c r="F76">
-        <v>0.1461187474589565</v>
+        <v>0.7436264271696302</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="B77">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C77">
-        <v>-0.02064586226009631</v>
+        <v>-0.05042849951913325</v>
       </c>
       <c r="D77">
-        <v>-3.716412795446431</v>
+        <v>-3.749352810787674</v>
       </c>
       <c r="E77">
-        <v>3.675121070926239</v>
+        <v>3.648495811749407</v>
       </c>
       <c r="F77">
-        <v>1.089137649468874</v>
+        <v>-3.274962147164651</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="B78">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="C78">
-        <v>-0.02545866091667559</v>
+        <v>0.1206864004233286</v>
       </c>
       <c r="D78">
-        <v>-3.720771365955694</v>
+        <v>-3.579576836491408</v>
       </c>
       <c r="E78">
-        <v>3.669854044122343</v>
+        <v>3.820949637338066</v>
       </c>
       <c r="F78">
-        <v>-0.6338878419924754</v>
+        <v>-0.6608937157075445</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B79">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="C79">
-        <v>0.02927596760964249</v>
+        <v>-0.02778797521987131</v>
       </c>
       <c r="D79">
-        <v>-3.665414440882153</v>
+        <v>-3.727472560633507</v>
       </c>
       <c r="E79">
-        <v>3.723966376101437</v>
+        <v>3.671896610193765</v>
       </c>
       <c r="F79">
-        <v>1.174040397648923</v>
+        <v>-0.6652905955551347</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B80">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="C80">
-        <v>-0.04748038107757602</v>
+        <v>0.0316098231104352</v>
       </c>
       <c r="D80">
-        <v>-3.741732538142136</v>
+        <v>-3.66745631483841</v>
       </c>
       <c r="E80">
-        <v>3.646771775986984</v>
+        <v>3.730675961059281</v>
       </c>
       <c r="F80">
-        <v>-0.865650130562301</v>
+        <v>-1.380585052480576</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="B81">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="C81">
-        <v>0.04512281350314001</v>
+        <v>0.02941521299229932</v>
       </c>
       <c r="D81">
-        <v>-3.648566103797731</v>
+        <v>-3.669344020913644</v>
       </c>
       <c r="E81">
-        <v>3.738811730804011</v>
+        <v>3.728174446898243</v>
       </c>
       <c r="F81">
-        <v>3.453529394486488</v>
+        <v>1.902403600469604</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="B82">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="C82">
-        <v>-0.1260060194863761</v>
+        <v>-0.06995180973886805</v>
       </c>
       <c r="D82">
-        <v>-3.821268858116486</v>
+        <v>-3.768700595822705</v>
       </c>
       <c r="E82">
-        <v>3.569256819143733</v>
+        <v>3.628796976344969</v>
       </c>
       <c r="F82">
-        <v>0.2795738322827646</v>
+        <v>-0.6301218076728787</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="B83">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="C83">
-        <v>0.04034865297802769</v>
+        <v>0.04676407314623737</v>
       </c>
       <c r="D83">
-        <v>-3.654252629439927</v>
+        <v>-3.651349222331655</v>
       </c>
       <c r="E83">
-        <v>3.734949935395982</v>
+        <v>3.74487736862413</v>
       </c>
       <c r="F83">
-        <v>-2.544756509258939</v>
+        <v>0.2345089917513477</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="B84">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="C84">
-        <v>0.06499445175188401</v>
+        <v>-0.02544510795192358</v>
       </c>
       <c r="D84">
-        <v>-3.630216544292353</v>
+        <v>-3.722868807070312</v>
       </c>
       <c r="E84">
-        <v>3.760205447796121</v>
+        <v>3.671978591166465</v>
       </c>
       <c r="F84">
-        <v>1.580428882078522</v>
+        <v>0.03602954461605634</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="B85">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C85">
-        <v>-0.07415660982997108</v>
+        <v>0.008817065354647801</v>
       </c>
       <c r="D85">
-        <v>-3.76912213578775</v>
+        <v>-3.687911262866609</v>
       </c>
       <c r="E85">
-        <v>3.620808916127808</v>
+        <v>3.705545393575905</v>
       </c>
       <c r="F85">
-        <v>0.07044734352632531</v>
+        <v>-1.46968081228156</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B86">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C86">
-        <v>0.02484293795552734</v>
+        <v>0.04178597829378761</v>
       </c>
       <c r="D86">
-        <v>-3.669433879681997</v>
+        <v>-3.654674230728046</v>
       </c>
       <c r="E86">
-        <v>3.719119755593052</v>
+        <v>3.738246187315621</v>
       </c>
       <c r="F86">
-        <v>-2.658260172051818</v>
+        <v>0.1461187474589565</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="B87">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="C87">
-        <v>0.07505078181242353</v>
+        <v>-0.02064586226009631</v>
       </c>
       <c r="D87">
-        <v>-3.619936476703169</v>
+        <v>-3.716412795446431</v>
       </c>
       <c r="E87">
-        <v>3.770038040328016</v>
+        <v>3.675121070926239</v>
       </c>
       <c r="F87">
-        <v>-1.237054159896189</v>
+        <v>1.089137649468874</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B88">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="C88">
-        <v>0.01180380699823186</v>
+        <v>-0.02545866091667559</v>
       </c>
       <c r="D88">
-        <v>-3.682826081367273</v>
+        <v>-3.720771365955694</v>
       </c>
       <c r="E88">
-        <v>3.706433695363737</v>
+        <v>3.669854044122343</v>
       </c>
       <c r="F88">
-        <v>-2.427168709711758</v>
+        <v>-0.6338878419924754</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="B89">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="C89">
-        <v>0.07067850905094686</v>
+        <v>0.02927596760964249</v>
       </c>
       <c r="D89">
-        <v>-3.624417222807142</v>
+        <v>-3.665414440882153</v>
       </c>
       <c r="E89">
-        <v>3.765774240909035</v>
+        <v>3.723966376101437</v>
       </c>
       <c r="F89">
-        <v>-0.3946260876199759</v>
+        <v>1.174040397648923</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="B90">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="C90">
-        <v>-0.0138908587931629</v>
+        <v>-0.04748038107757602</v>
       </c>
       <c r="D90">
-        <v>-3.708336948930818</v>
+        <v>-3.741732538142136</v>
       </c>
       <c r="E90">
-        <v>3.680555231344492</v>
+        <v>3.646771775986984</v>
       </c>
       <c r="F90">
-        <v>0.3383461874383542</v>
+        <v>-0.865650130562301</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="B91">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C91">
-        <v>-0.005318011364102732</v>
+        <v>0.04512281350314001</v>
       </c>
       <c r="D91">
-        <v>-3.699096894476964</v>
+        <v>-3.648566103797731</v>
       </c>
       <c r="E91">
-        <v>3.688460871748758</v>
+        <v>3.738811730804011</v>
       </c>
       <c r="F91">
-        <v>-1.760575526699171</v>
+        <v>3.453529394486488</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="B92">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C92">
-        <v>0.05625100227891178</v>
+        <v>-0.1260060194863761</v>
       </c>
       <c r="D92">
-        <v>-3.637436356986317</v>
+        <v>-3.821268858116486</v>
       </c>
       <c r="E92">
-        <v>3.749938361544141</v>
+        <v>3.569256819143733</v>
       </c>
       <c r="F92">
-        <v>1.309192401829229</v>
+        <v>0.2795738322827646</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B93">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="C93">
-        <v>-0.06121468911406946</v>
+        <v>0.04034865297802769</v>
       </c>
       <c r="D93">
-        <v>-3.754516561696969</v>
+        <v>-3.654252629439927</v>
       </c>
       <c r="E93">
-        <v>3.63208718346883</v>
+        <v>3.734949935395982</v>
       </c>
       <c r="F93">
-        <v>7.724026350365421</v>
+        <v>-2.544756509258939</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="C94">
-        <v>-0.2104570686493847</v>
+        <v>0.06499445175188401</v>
       </c>
       <c r="D94">
-        <v>-3.91483202557163</v>
+        <v>-3.630216544292353</v>
       </c>
       <c r="E94">
-        <v>3.493917888272861</v>
+        <v>3.760205447796121</v>
       </c>
       <c r="F94">
-        <v>1.455075040102649</v>
+        <v>1.580428882078522</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="B95">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="C95">
-        <v>0.03179070383960947</v>
+        <v>-0.07415660982997108</v>
       </c>
       <c r="D95">
-        <v>-3.672425833659415</v>
+        <v>-3.76912213578775</v>
       </c>
       <c r="E95">
-        <v>3.736007241338633</v>
+        <v>3.620808916127808</v>
       </c>
       <c r="F95">
-        <v>2.143668340297644</v>
+        <v>0.07044734352632531</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="B96">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C96">
-        <v>-0.07465682591572331</v>
+        <v>0.02484293795552734</v>
       </c>
       <c r="D96">
-        <v>-3.779043431678097</v>
+        <v>-3.669433879681997</v>
       </c>
       <c r="E96">
-        <v>3.62972977984665</v>
+        <v>3.719119755593052</v>
       </c>
       <c r="F96">
-        <v>1.950224323144134</v>
+        <v>-2.658260172051818</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="B97">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="C97">
-        <v>-0.02716765140730837</v>
+        <v>0.07505078181242353</v>
       </c>
       <c r="D97">
-        <v>-3.731656208243582</v>
+        <v>-3.619936476703169</v>
       </c>
       <c r="E97">
-        <v>3.677320905428965</v>
+        <v>3.770038040328016</v>
       </c>
       <c r="F97">
-        <v>2.57469004603017</v>
+        <v>-1.237054159896189</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B98">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="C98">
-        <v>-0.06155809143946156</v>
+        <v>0.01180380699823186</v>
       </c>
       <c r="D98">
-        <v>-3.76666390306015</v>
+        <v>-3.682826081367273</v>
       </c>
       <c r="E98">
-        <v>3.643547720181227</v>
+        <v>3.706433695363737</v>
       </c>
       <c r="F98">
-        <v>-2.70683410225967</v>
+        <v>-2.427168709711758</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="B99">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="C99">
-        <v>0.1014078520273141</v>
+        <v>0.07067850905094686</v>
       </c>
       <c r="D99">
-        <v>-3.604359647973118</v>
+        <v>-3.624417222807142</v>
       </c>
       <c r="E99">
-        <v>3.807175352027746</v>
+        <v>3.765774240909035</v>
       </c>
       <c r="F99">
-        <v>-0.08267879759937813</v>
+        <v>-0.3946260876199759</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="B100">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C100">
-        <v>-0.03749709771833709</v>
+        <v>-0.0138908587931629</v>
       </c>
       <c r="D100">
-        <v>-3.74257997159794</v>
+        <v>-3.708336948930818</v>
       </c>
       <c r="E100">
-        <v>3.667585776161265</v>
+        <v>3.680555231344492</v>
       </c>
       <c r="F100">
-        <v>-0.5474012176028609</v>
+        <v>0.3383461874383542</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B101">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="C101">
-        <v>0.03052725436725515</v>
+        <v>-0.005318011364102732</v>
       </c>
       <c r="D101">
-        <v>-3.673914939614726</v>
+        <v>-3.699096894476964</v>
       </c>
       <c r="E101">
-        <v>3.734969448349236</v>
+        <v>3.688460871748758</v>
       </c>
       <c r="F101">
-        <v>-0.4334062460220167</v>
+        <v>-1.760575526699171</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="B102">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="C102">
-        <v>0.0002693812380943073</v>
+        <v>0.05625100227891178</v>
       </c>
       <c r="D102">
-        <v>-3.703524046273419</v>
+        <v>-3.637436356986317</v>
       </c>
       <c r="E102">
-        <v>3.704062808749607</v>
+        <v>3.749938361544141</v>
       </c>
       <c r="F102">
-        <v>-0.620027122473843</v>
+        <v>1.309192401829229</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B103">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C103">
-        <v>0.01745861899367332</v>
+        <v>-0.06121468911406946</v>
       </c>
       <c r="D103">
-        <v>-3.685719033224994</v>
+        <v>-3.754516561696969</v>
       </c>
       <c r="E103">
-        <v>3.72063627121234</v>
+        <v>3.63208718346883</v>
       </c>
       <c r="F103">
-        <v>0.4695631636348452</v>
+        <v>7.724026350365421</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="B104">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="C104">
-        <v>-0.02021657943046967</v>
+        <v>-0.2104570686493847</v>
       </c>
       <c r="D104">
-        <v>-3.72274403791714</v>
+        <v>-3.91483202557163</v>
       </c>
       <c r="E104">
-        <v>3.6823108790562</v>
+        <v>3.493917888272861</v>
       </c>
       <c r="F104">
-        <v>3.291394687164484</v>
+        <v>1.455075040102649</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B105">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="C105">
-        <v>-0.08458453917586284</v>
+        <v>0.03179070383960947</v>
       </c>
       <c r="D105">
-        <v>-3.788540635603654</v>
+        <v>-3.672425833659415</v>
       </c>
       <c r="E105">
-        <v>3.619371557251927</v>
+        <v>3.736007241338633</v>
       </c>
       <c r="F105">
-        <v>2.051025270312046</v>
+        <v>2.143668340297644</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="B106">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="C106">
-        <v>-0.02292060534753948</v>
+        <v>-0.07465682591572331</v>
       </c>
       <c r="D106">
-        <v>-3.727066431598261</v>
+        <v>-3.779043431678097</v>
       </c>
       <c r="E106">
-        <v>3.681225220903181</v>
+        <v>3.62972977984665</v>
       </c>
       <c r="F106">
-        <v>0.09511731852196448</v>
+        <v>1.950224323144134</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="B107">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C107">
-        <v>0.006672838500422364</v>
+        <v>-0.02716765140730837</v>
       </c>
       <c r="D107">
-        <v>-3.696786588402266</v>
+        <v>-3.731656208243582</v>
       </c>
       <c r="E107">
-        <v>3.710132265403111</v>
+        <v>3.677320905428965</v>
       </c>
       <c r="F107">
-        <v>-1.323888863035094</v>
+        <v>2.57469004603017</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="B108">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="C108">
-        <v>0.03343811561864585</v>
+        <v>-0.06155809143946156</v>
       </c>
       <c r="D108">
-        <v>-3.669674115461762</v>
+        <v>-3.76666390306015</v>
       </c>
       <c r="E108">
-        <v>3.736550346699053</v>
+        <v>3.643547720181227</v>
       </c>
       <c r="F108">
-        <v>0.6880577589132741</v>
+        <v>-2.70683410225967</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B109">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C109">
-        <v>-0.03245301894078673</v>
+        <v>0.1014078520273141</v>
       </c>
       <c r="D109">
-        <v>-3.734959504559986</v>
+        <v>-3.604359647973118</v>
       </c>
       <c r="E109">
-        <v>3.670053466678413</v>
+        <v>3.807175352027746</v>
       </c>
       <c r="F109">
-        <v>1.173126960546611</v>
+        <v>-0.08267879759937813</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="B110">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="C110">
-        <v>-0.01908535359032443</v>
+        <v>-0.03749709771833709</v>
       </c>
       <c r="D110">
-        <v>-3.721184136804657</v>
+        <v>-3.74257997159794</v>
       </c>
       <c r="E110">
-        <v>3.683013429624007</v>
+        <v>3.667585776161265</v>
       </c>
       <c r="F110">
-        <v>-0.4264398786457235</v>
+        <v>-0.5474012176028609</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="B111">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C111">
-        <v>0.01936975624267551</v>
+        <v>0.03052725436725515</v>
       </c>
       <c r="D111">
-        <v>-3.682073373806832</v>
+        <v>-3.673914939614726</v>
       </c>
       <c r="E111">
-        <v>3.720812886292183</v>
+        <v>3.734969448349236</v>
       </c>
       <c r="F111">
-        <v>-1.933739839992299</v>
+        <v>-0.4334062460220167</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="B112">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="C112">
-        <v>0.04496635860367748</v>
+        <v>0.0002693812380943073</v>
       </c>
       <c r="D112">
-        <v>-3.656524540028097</v>
+        <v>-3.703524046273419</v>
       </c>
       <c r="E112">
-        <v>3.746457257235452</v>
+        <v>3.704062808749607</v>
       </c>
       <c r="F112">
-        <v>-0.4690667718941555</v>
+        <v>-0.620027122473843</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B113">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="C113">
-        <v>-0.005321750407443371</v>
+        <v>0.01745861899367332</v>
       </c>
       <c r="D113">
-        <v>-3.706176451640192</v>
+        <v>-3.685719033224994</v>
       </c>
       <c r="E113">
-        <v>3.695532950825306</v>
+        <v>3.72063627121234</v>
       </c>
       <c r="F113">
-        <v>1.224636639215682</v>
+        <v>0.4695631636348452</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="B114">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="C114">
-        <v>-0.0312256770625074</v>
+        <v>-0.02021657943046967</v>
       </c>
       <c r="D114">
-        <v>-3.731685128544601</v>
+        <v>-3.72274403791714</v>
       </c>
       <c r="E114">
-        <v>3.669233774419586</v>
+        <v>3.6823108790562</v>
       </c>
       <c r="F114">
-        <v>1.446881111991694</v>
+        <v>3.291394687164484</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="B115">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C115">
-        <v>-0.02658152341349573</v>
+        <v>-0.08458453917586284</v>
       </c>
       <c r="D115">
-        <v>-3.726775135476639</v>
+        <v>-3.788540635603654</v>
       </c>
       <c r="E115">
-        <v>3.673612088649648</v>
+        <v>3.619371557251927</v>
       </c>
       <c r="F115">
-        <v>-1.095162124310178</v>
+        <v>2.051025270312046</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="B116">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="C116">
-        <v>0.04044531720212541</v>
+        <v>-0.02292060534753948</v>
       </c>
       <c r="D116">
-        <v>-3.659282122712977</v>
+        <v>-3.727066431598261</v>
       </c>
       <c r="E116">
-        <v>3.740172757117228</v>
+        <v>3.681225220903181</v>
       </c>
       <c r="F116">
-        <v>-0.7207526997117242</v>
+        <v>0.09511731852196448</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B117">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="C117">
-        <v>0.003286667507938767</v>
+        <v>0.006672838500422364</v>
       </c>
       <c r="D117">
-        <v>-3.695866561684098</v>
+        <v>-3.696786588402266</v>
       </c>
       <c r="E117">
-        <v>3.702439896699975</v>
+        <v>3.710132265403111</v>
       </c>
       <c r="F117">
-        <v>-2.226829113583761</v>
+        <v>-1.323888863035094</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="B118">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="C118">
-        <v>0.05871757189538063</v>
+        <v>0.03343811561864585</v>
       </c>
       <c r="D118">
-        <v>-3.640706824758074</v>
+        <v>-3.669674115461762</v>
       </c>
       <c r="E118">
-        <v>3.758141968548835</v>
+        <v>3.736550346699053</v>
       </c>
       <c r="F118">
-        <v>2.451620473495453</v>
+        <v>0.6880577589132741</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C119">
-        <v>-0.09137993962479118</v>
+        <v>-0.03245301894078673</v>
       </c>
       <c r="D119">
-        <v>-3.791219952466187</v>
+        <v>-3.734959504559986</v>
       </c>
       <c r="E119">
-        <v>3.608460073216605</v>
+        <v>3.670053466678413</v>
       </c>
       <c r="F119">
-        <v>-2.270981619876622</v>
+        <v>1.173126960546611</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="B120">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C120">
-        <v>0.1017895902617434</v>
+        <v>-0.01908535359032443</v>
       </c>
       <c r="D120">
-        <v>-3.598277631613662</v>
+        <v>-3.721184136804657</v>
       </c>
       <c r="E120">
-        <v>3.801856812137149</v>
+        <v>3.683013429624007</v>
       </c>
       <c r="F120">
-        <v>-1.704351671831539</v>
+        <v>-0.4264398786457235</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B121">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C121">
-        <v>0.007039148609777945</v>
+        <v>0.01936975624267551</v>
       </c>
       <c r="D121">
-        <v>-3.692969479702846</v>
+        <v>-3.682073373806832</v>
       </c>
       <c r="E121">
-        <v>3.707047776922402</v>
+        <v>3.720812886292183</v>
       </c>
       <c r="F121">
-        <v>1.540148022457188</v>
+        <v>-1.933739839992299</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="B122">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C122">
-        <v>-0.04626602368472665</v>
+        <v>0.04496635860367748</v>
       </c>
       <c r="D122">
-        <v>-3.746041517350455</v>
+        <v>-3.656524540028097</v>
       </c>
       <c r="E122">
-        <v>3.653509469981002</v>
+        <v>3.746457257235452</v>
       </c>
       <c r="F122">
-        <v>0.1806091944855481</v>
+        <v>-0.4690667718941555</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="B123">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C123">
-        <v>0.0129269383352047</v>
+        <v>-0.005321750407443371</v>
       </c>
       <c r="D123">
-        <v>-3.686174209230027</v>
+        <v>-3.706176451640192</v>
       </c>
       <c r="E123">
-        <v>3.712028085900437</v>
+        <v>3.695532950825306</v>
       </c>
       <c r="F123">
-        <v>0.08198737853692961</v>
+        <v>1.224636639215682</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="B124">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C124">
-        <v>-0.00729547887781145</v>
+        <v>-0.0312256770625074</v>
       </c>
       <c r="D124">
-        <v>-3.705713722115969</v>
+        <v>-3.731685128544601</v>
       </c>
       <c r="E124">
-        <v>3.691122764360347</v>
+        <v>3.669233774419586</v>
       </c>
       <c r="F124">
-        <v>-1.037986088506848</v>
+        <v>1.446881111991694</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B125">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C125">
-        <v>0.03161180088204163</v>
+        <v>-0.02658152341349573</v>
       </c>
       <c r="D125">
-        <v>-3.666326872493788</v>
+        <v>-3.726775135476639</v>
       </c>
       <c r="E125">
-        <v>3.729550474257872</v>
+        <v>3.673612088649648</v>
       </c>
       <c r="F125">
-        <v>3.450863246366254</v>
+        <v>-1.095162124310178</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B126">
+        <v>2697</v>
+      </c>
+      <c r="C126">
+        <v>0.04044531720212541</v>
+      </c>
+      <c r="D126">
+        <v>-3.659282122712977</v>
+      </c>
+      <c r="E126">
+        <v>3.740172757117228</v>
+      </c>
+      <c r="F126">
+        <v>-0.7207526997117242</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B127">
+        <v>2698</v>
+      </c>
+      <c r="C127">
+        <v>0.003286667507938767</v>
+      </c>
+      <c r="D127">
+        <v>-3.695866561684098</v>
+      </c>
+      <c r="E127">
+        <v>3.702439896699975</v>
+      </c>
+      <c r="F127">
+        <v>-2.226829113583761</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B128">
+        <v>2699</v>
+      </c>
+      <c r="C128">
+        <v>0.05871757189538063</v>
+      </c>
+      <c r="D128">
+        <v>-3.640706824758074</v>
+      </c>
+      <c r="E128">
+        <v>3.758141968548835</v>
+      </c>
+      <c r="F128">
+        <v>2.451620473495453</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B129">
+        <v>2700</v>
+      </c>
+      <c r="C129">
+        <v>-0.09137993962479118</v>
+      </c>
+      <c r="D129">
+        <v>-3.791219952466187</v>
+      </c>
+      <c r="E129">
+        <v>3.608460073216605</v>
+      </c>
+      <c r="F129">
+        <v>-2.270981619876622</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B130">
+        <v>2701</v>
+      </c>
+      <c r="C130">
+        <v>0.1017895902617434</v>
+      </c>
+      <c r="D130">
+        <v>-3.598277631613662</v>
+      </c>
+      <c r="E130">
+        <v>3.801856812137149</v>
+      </c>
+      <c r="F130">
+        <v>-1.704351671831539</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B131">
+        <v>2702</v>
+      </c>
+      <c r="C131">
+        <v>0.007039148609777945</v>
+      </c>
+      <c r="D131">
+        <v>-3.692969479702846</v>
+      </c>
+      <c r="E131">
+        <v>3.707047776922402</v>
+      </c>
+      <c r="F131">
+        <v>1.540148022457188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B132">
+        <v>2703</v>
+      </c>
+      <c r="C132">
+        <v>-0.04626602368472665</v>
+      </c>
+      <c r="D132">
+        <v>-3.746041517350455</v>
+      </c>
+      <c r="E132">
+        <v>3.653509469981002</v>
+      </c>
+      <c r="F132">
+        <v>0.1806091944855481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B133">
+        <v>2704</v>
+      </c>
+      <c r="C133">
+        <v>0.0129269383352047</v>
+      </c>
+      <c r="D133">
+        <v>-3.686174209230027</v>
+      </c>
+      <c r="E133">
+        <v>3.712028085900437</v>
+      </c>
+      <c r="F133">
+        <v>0.08198737853692961</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B134">
+        <v>2705</v>
+      </c>
+      <c r="C134">
+        <v>-0.00729547887781145</v>
+      </c>
+      <c r="D134">
+        <v>-3.705713722115969</v>
+      </c>
+      <c r="E134">
+        <v>3.691122764360347</v>
+      </c>
+      <c r="F134">
+        <v>-1.037986088506848</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B135">
+        <v>2706</v>
+      </c>
+      <c r="C135">
+        <v>0.03161180088204163</v>
+      </c>
+      <c r="D135">
+        <v>-3.666326872493788</v>
+      </c>
+      <c r="E135">
+        <v>3.729550474257872</v>
+      </c>
+      <c r="F135">
+        <v>3.450863246366254</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>2708</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>2707</v>
       </c>
-      <c r="C126">
+      <c r="C136">
         <v>-0.1092367842966511</v>
       </c>
-      <c r="D126">
+      <c r="D136">
         <v>-3.808735174444657</v>
       </c>
-      <c r="E126">
+      <c r="E136">
         <v>3.590261605851355</v>
       </c>
-      <c r="F126">
+      <c r="F136">
         <v>-1.029278948543144</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2701 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.05018068611057414</v>
+        <v>0.004413929786342788</v>
       </c>
       <c r="D2">
-        <v>-3.769529331840137</v>
+        <v>-3.715211737824142</v>
       </c>
       <c r="E2">
-        <v>3.669167959618989</v>
+        <v>3.724039597396827</v>
       </c>
       <c r="F2">
-        <v>2.621345132835451</v>
+        <v>-1.275889153906107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="B3">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.06125151658202177</v>
+        <v>0.03599149614096087</v>
       </c>
       <c r="D3">
-        <v>-3.781307659013267</v>
+        <v>-3.683242013872431</v>
       </c>
       <c r="E3">
-        <v>3.658804625849223</v>
+        <v>3.755225006154352</v>
       </c>
       <c r="F3">
-        <v>-1.245729595446399</v>
+        <v>-0.3859628835343187</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="B4">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.06337084540904125</v>
+        <v>-0.003470486038052861</v>
       </c>
       <c r="D4">
-        <v>-3.656244226170403</v>
+        <v>-3.722020089944776</v>
       </c>
       <c r="E4">
-        <v>3.782985916988486</v>
+        <v>3.71507911786867</v>
       </c>
       <c r="F4">
-        <v>-2.279300952855756</v>
+        <v>0.07158708874701603</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B5">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="C5">
-        <v>0.044853413689808</v>
+        <v>-0.0006811678836191638</v>
       </c>
       <c r="D5">
-        <v>-3.675139507893548</v>
+        <v>-3.718512854894635</v>
       </c>
       <c r="E5">
-        <v>3.764846335273164</v>
+        <v>3.717150519127396</v>
       </c>
       <c r="F5">
-        <v>-3.534351299258276</v>
+        <v>-1.49966761540874</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="B6">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.08778613897624399</v>
+        <v>0.04469354024750916</v>
       </c>
       <c r="D6">
-        <v>-3.63404863370108</v>
+        <v>-3.672868353991792</v>
       </c>
       <c r="E6">
-        <v>3.809620911653568</v>
+        <v>3.76225543448681</v>
       </c>
       <c r="F6">
-        <v>2.097565825273051</v>
+        <v>-1.301473367783501</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.1008420056948547</v>
+        <v>0.01983606759585266</v>
       </c>
       <c r="D7">
-        <v>-3.822762982513996</v>
+        <v>-3.697369214588702</v>
       </c>
       <c r="E7">
-        <v>3.621078971124287</v>
+        <v>3.737041349780407</v>
       </c>
       <c r="F7">
-        <v>2.31190762162008</v>
+        <v>-0.1178203376353437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="B8">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.02864289510715823</v>
+        <v>-0.004772636057482543</v>
       </c>
       <c r="D8">
-        <v>-3.751006179816042</v>
+        <v>-3.721263733454803</v>
       </c>
       <c r="E8">
-        <v>3.693720389601726</v>
+        <v>3.711718461339837</v>
       </c>
       <c r="F8">
-        <v>0.6123194638897544</v>
+        <v>-1.335133317486381</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B9">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="C9">
-        <v>-0.006644964006844001</v>
+        <v>0.0412398950008791</v>
       </c>
       <c r="D9">
-        <v>-3.728368684138239</v>
+        <v>-3.674886888204967</v>
       </c>
       <c r="E9">
-        <v>3.715078756124552</v>
+        <v>3.757366678206726</v>
       </c>
       <c r="F9">
-        <v>0.2552106872235171</v>
+        <v>2.768954516211863</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="B10">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C10">
-        <v>-0.004821858430066231</v>
+        <v>-0.09968236921915974</v>
       </c>
       <c r="D10">
-        <v>-3.725838249370148</v>
+        <v>-3.816576040229637</v>
       </c>
       <c r="E10">
-        <v>3.716194532510015</v>
+        <v>3.617211301791318</v>
       </c>
       <c r="F10">
-        <v>0.494386203665087</v>
+        <v>-0.4659297887419811</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.01266070505983424</v>
+        <v>0.0552294916148478</v>
       </c>
       <c r="D11">
-        <v>-3.733006269052904</v>
+        <v>-3.660973838931024</v>
       </c>
       <c r="E11">
-        <v>3.707684858933236</v>
+        <v>3.771432822160719</v>
       </c>
       <c r="F11">
-        <v>0.02817695144035071</v>
+        <v>-0.9826287175041415</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B12">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.004413929786342788</v>
+        <v>0.00706895495302079</v>
       </c>
       <c r="D12">
-        <v>-3.715211737824142</v>
+        <v>-3.708632498370262</v>
       </c>
       <c r="E12">
-        <v>3.724039597396827</v>
+        <v>3.722770408276304</v>
       </c>
       <c r="F12">
-        <v>-1.275889153906107</v>
+        <v>2.575249610241492</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="B13">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.03599149614096087</v>
+        <v>-0.08095770751653419</v>
       </c>
       <c r="D13">
-        <v>-3.683242013872431</v>
+        <v>-3.797256988639085</v>
       </c>
       <c r="E13">
-        <v>3.755225006154352</v>
+        <v>3.635341573606017</v>
       </c>
       <c r="F13">
-        <v>-0.3859628835343187</v>
+        <v>-1.665618925032142</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B14">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.003470486038052861</v>
+        <v>0.08271997757795069</v>
       </c>
       <c r="D14">
-        <v>-3.722020089944776</v>
+        <v>-3.633363172306469</v>
       </c>
       <c r="E14">
-        <v>3.71507911786867</v>
+        <v>3.79880312746237</v>
       </c>
       <c r="F14">
-        <v>0.07158708874701603</v>
+        <v>-0.08766803600650519</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B15">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.0006811678836191638</v>
+        <v>-0.02917063086054528</v>
       </c>
       <c r="D15">
-        <v>-3.718512854894635</v>
+        <v>-3.744543768361359</v>
       </c>
       <c r="E15">
-        <v>3.717150519127396</v>
+        <v>3.686202506640269</v>
       </c>
       <c r="F15">
-        <v>-1.49966761540874</v>
+        <v>-2.037873240304044</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="B16">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.04469354024750916</v>
+        <v>0.07427507399027911</v>
       </c>
       <c r="D16">
-        <v>-3.672868353991792</v>
+        <v>-3.641185091560629</v>
       </c>
       <c r="E16">
-        <v>3.76225543448681</v>
+        <v>3.789735239541186</v>
       </c>
       <c r="F16">
-        <v>-1.301473367783501</v>
+        <v>-1.59401871350866</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="B17">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.01983606759585266</v>
+        <v>0.01938210345275648</v>
       </c>
       <c r="D17">
-        <v>-3.697369214588702</v>
+        <v>-3.6959166329189</v>
       </c>
       <c r="E17">
-        <v>3.737041349780407</v>
+        <v>3.734680839824413</v>
       </c>
       <c r="F17">
-        <v>-0.1178203376353437</v>
+        <v>-0.883075166159486</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B18">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.004772636057482543</v>
+        <v>0.01911282417283083</v>
       </c>
       <c r="D18">
-        <v>-3.721263733454803</v>
+        <v>-3.695632822712261</v>
       </c>
       <c r="E18">
-        <v>3.711718461339837</v>
+        <v>3.733858471057923</v>
       </c>
       <c r="F18">
-        <v>-1.335133317486381</v>
+        <v>0.6098509524722573</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="C19">
-        <v>0.0412398950008791</v>
+        <v>-0.02600963654004976</v>
       </c>
       <c r="D19">
-        <v>-3.674886888204967</v>
+        <v>-3.740110235949098</v>
       </c>
       <c r="E19">
-        <v>3.757366678206726</v>
+        <v>3.688090962868999</v>
       </c>
       <c r="F19">
-        <v>2.768954516211863</v>
+        <v>-0.6710411027675889</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="B20">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.09968236921915974</v>
+        <v>0.03065504356924043</v>
       </c>
       <c r="D20">
-        <v>-3.816576040229637</v>
+        <v>-3.682814227151014</v>
       </c>
       <c r="E20">
-        <v>3.617211301791318</v>
+        <v>3.744124314289495</v>
       </c>
       <c r="F20">
-        <v>-0.4659297887419811</v>
+        <v>1.894713747611299</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B21">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.0552294916148478</v>
+        <v>-0.06981164845774257</v>
       </c>
       <c r="D21">
-        <v>-3.660973838931024</v>
+        <v>-3.783257913719768</v>
       </c>
       <c r="E21">
-        <v>3.771432822160719</v>
+        <v>3.643634616804283</v>
       </c>
       <c r="F21">
-        <v>-0.9826287175041415</v>
+        <v>0.1500375375233176</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B22">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.00706895495302079</v>
+        <v>0.0234505551889241</v>
       </c>
       <c r="D22">
-        <v>-3.708632498370262</v>
+        <v>-3.689291948993918</v>
       </c>
       <c r="E22">
-        <v>3.722770408276304</v>
+        <v>3.736193059371767</v>
       </c>
       <c r="F22">
-        <v>2.575249610241492</v>
+        <v>1.221889736612525</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="B23">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C23">
-        <v>-0.08095770751653419</v>
+        <v>-0.04667850989721078</v>
       </c>
       <c r="D23">
-        <v>-3.797256988639085</v>
+        <v>-3.758993191256509</v>
       </c>
       <c r="E23">
-        <v>3.635341573606017</v>
+        <v>3.665636171462088</v>
       </c>
       <c r="F23">
-        <v>-1.665618925032142</v>
+        <v>0.7230902899845404</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B24">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.08271997757795069</v>
+        <v>-0.003045700581036537</v>
       </c>
       <c r="D24">
-        <v>-3.633363172306469</v>
+        <v>-3.714765516683935</v>
       </c>
       <c r="E24">
-        <v>3.79880312746237</v>
+        <v>3.708674115521862</v>
       </c>
       <c r="F24">
-        <v>-0.08766803600650519</v>
+        <v>-2.215209886282032</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B25">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="C25">
-        <v>-0.02917063086054528</v>
+        <v>0.068687190310741</v>
       </c>
       <c r="D25">
-        <v>-3.744543768361359</v>
+        <v>-3.6432923073987</v>
       </c>
       <c r="E25">
-        <v>3.686202506640269</v>
+        <v>3.780666688020183</v>
       </c>
       <c r="F25">
-        <v>-2.037873240304044</v>
+        <v>-0.3463598071427043</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="B26">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.07427507399027911</v>
+        <v>-0.01672788064149877</v>
       </c>
       <c r="D26">
-        <v>-3.641185091560629</v>
+        <v>-3.728029490904799</v>
       </c>
       <c r="E26">
-        <v>3.789735239541186</v>
+        <v>3.694573729621802</v>
       </c>
       <c r="F26">
-        <v>-1.59401871350866</v>
+        <v>0.5716020376668851</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B27">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.01938210345275648</v>
+        <v>-0.01068945145464684</v>
       </c>
       <c r="D27">
-        <v>-3.6959166329189</v>
+        <v>-3.721348218668696</v>
       </c>
       <c r="E27">
-        <v>3.734680839824413</v>
+        <v>3.699969315759403</v>
       </c>
       <c r="F27">
-        <v>-0.883075166159486</v>
+        <v>-0.6621544133080803</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.01911282417283083</v>
+        <v>0.02429650708013059</v>
       </c>
       <c r="D28">
-        <v>-3.695632822712261</v>
+        <v>-3.685735330023641</v>
       </c>
       <c r="E28">
-        <v>3.733858471057923</v>
+        <v>3.734328344183902</v>
       </c>
       <c r="F28">
-        <v>0.6098509524722573</v>
+        <v>0.06037736032471486</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.02600963654004976</v>
+        <v>-0.01141634297436266</v>
       </c>
       <c r="D29">
-        <v>-3.740110235949098</v>
+        <v>-3.720737637223019</v>
       </c>
       <c r="E29">
-        <v>3.688090962868999</v>
+        <v>3.697904951274294</v>
       </c>
       <c r="F29">
-        <v>-0.6710411027675889</v>
+        <v>0.4216238740985645</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="B30">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C30">
-        <v>0.03065504356924043</v>
+        <v>-0.008266596343144778</v>
       </c>
       <c r="D30">
-        <v>-3.682814227151014</v>
+        <v>-3.716914707939887</v>
       </c>
       <c r="E30">
-        <v>3.744124314289495</v>
+        <v>3.700381515253597</v>
       </c>
       <c r="F30">
-        <v>1.894713747611299</v>
+        <v>0.180153178884801</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="B31">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.06981164845774257</v>
+        <v>-0.002193723909245174</v>
       </c>
       <c r="D31">
-        <v>-3.783257913719768</v>
+        <v>-3.710138874780163</v>
       </c>
       <c r="E31">
-        <v>3.643634616804283</v>
+        <v>3.705751426961673</v>
       </c>
       <c r="F31">
-        <v>0.1500375375233176</v>
+        <v>-4.462904214801</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="B32">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.0234505551889241</v>
+        <v>0.1360643599740534</v>
       </c>
       <c r="D32">
-        <v>-3.689291948993918</v>
+        <v>-3.575114601423265</v>
       </c>
       <c r="E32">
-        <v>3.736193059371767</v>
+        <v>3.847243321371372</v>
       </c>
       <c r="F32">
-        <v>1.221889736612525</v>
+        <v>-3.576370928456996</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C33">
-        <v>-0.04667850989721078</v>
+        <v>0.0499442081875221</v>
       </c>
       <c r="D33">
-        <v>-3.758993191256509</v>
+        <v>-3.663247361438549</v>
       </c>
       <c r="E33">
-        <v>3.665636171462088</v>
+        <v>3.763135777813593</v>
       </c>
       <c r="F33">
-        <v>0.7230902899845404</v>
+        <v>0.8417013110948446</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="B34">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.003045700581036537</v>
+        <v>-0.04483356416599449</v>
       </c>
       <c r="D34">
-        <v>-3.714765516683935</v>
+        <v>-3.757439145086909</v>
       </c>
       <c r="E34">
-        <v>3.708674115521862</v>
+        <v>3.66777201675492</v>
       </c>
       <c r="F34">
-        <v>-2.215209886282032</v>
+        <v>-0.4199650817902523</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="B35">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.068687190310741</v>
+        <v>0.03012651295433177</v>
       </c>
       <c r="D35">
-        <v>-3.6432923073987</v>
+        <v>-3.681797249466674</v>
       </c>
       <c r="E35">
-        <v>3.780666688020183</v>
+        <v>3.742050275375338</v>
       </c>
       <c r="F35">
-        <v>-0.3463598071427043</v>
+        <v>-0.3892317596539741</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="B36">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.01672788064149877</v>
+        <v>-0.0007658740302186329</v>
       </c>
       <c r="D36">
-        <v>-3.728029490904799</v>
+        <v>-3.712015175465686</v>
       </c>
       <c r="E36">
-        <v>3.694573729621802</v>
+        <v>3.710483427405248</v>
       </c>
       <c r="F36">
-        <v>0.5716020376668851</v>
+        <v>-0.9305429974171275</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="B37">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="C37">
-        <v>-0.01068945145464684</v>
+        <v>0.02720912882806742</v>
       </c>
       <c r="D37">
-        <v>-3.721348218668696</v>
+        <v>-3.683502131512728</v>
       </c>
       <c r="E37">
-        <v>3.699969315759403</v>
+        <v>3.737920389168863</v>
       </c>
       <c r="F37">
-        <v>-0.6621544133080803</v>
+        <v>-0.8730802515184877</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="B38">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.02429650708013059</v>
+        <v>0.01423198598233072</v>
       </c>
       <c r="D38">
-        <v>-3.685735330023641</v>
+        <v>-3.695931013625908</v>
       </c>
       <c r="E38">
-        <v>3.734328344183902</v>
+        <v>3.724394985590569</v>
       </c>
       <c r="F38">
-        <v>0.06037736032471486</v>
+        <v>-0.730657518243838</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="B39">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="C39">
-        <v>-0.01141634297436266</v>
+        <v>0.01528604123999378</v>
       </c>
       <c r="D39">
-        <v>-3.720737637223019</v>
+        <v>-3.694278430155139</v>
       </c>
       <c r="E39">
-        <v>3.697904951274294</v>
+        <v>3.724850512635126</v>
       </c>
       <c r="F39">
-        <v>0.4216238740985645</v>
+        <v>0.796816964917646</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="B40">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.008266596343144778</v>
+        <v>-0.02909692102730477</v>
       </c>
       <c r="D40">
-        <v>-3.716914707939887</v>
+        <v>-3.738074355187349</v>
       </c>
       <c r="E40">
-        <v>3.700381515253597</v>
+        <v>3.679880513132739</v>
       </c>
       <c r="F40">
-        <v>0.180153178884801</v>
+        <v>-1.700891430132678</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="B41">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.002193723909245174</v>
+        <v>0.06097910945992535</v>
       </c>
       <c r="D41">
-        <v>-3.710138874780163</v>
+        <v>-3.647843010017915</v>
       </c>
       <c r="E41">
-        <v>3.705751426961673</v>
+        <v>3.769801228937766</v>
       </c>
       <c r="F41">
-        <v>-4.462904214801</v>
+        <v>0.5534605322862873</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="B42">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.1360643599740534</v>
+        <v>-0.04072798553990853</v>
       </c>
       <c r="D42">
-        <v>-3.575114601423265</v>
+        <v>-3.748890925847802</v>
       </c>
       <c r="E42">
-        <v>3.847243321371372</v>
+        <v>3.667434954767986</v>
       </c>
       <c r="F42">
-        <v>-3.576370928456996</v>
+        <v>-0.6039273514243604</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="B43">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.0499442081875221</v>
+        <v>0.03412157577968974</v>
       </c>
       <c r="D43">
-        <v>-3.663247361438549</v>
+        <v>-3.673397253046782</v>
       </c>
       <c r="E43">
-        <v>3.763135777813593</v>
+        <v>3.741640404606161</v>
       </c>
       <c r="F43">
-        <v>0.8417013110948446</v>
+        <v>0.01682510309333196</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B44">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.04483356416599449</v>
+        <v>-0.01430834400688961</v>
       </c>
       <c r="D44">
-        <v>-3.757439145086909</v>
+        <v>-3.72112097248142</v>
       </c>
       <c r="E44">
-        <v>3.66777201675492</v>
+        <v>3.692504284467641</v>
       </c>
       <c r="F44">
-        <v>-0.4199650817902523</v>
+        <v>0.7375159141924215</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="B45">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C45">
-        <v>0.03012651295433177</v>
+        <v>-0.01572497833689118</v>
       </c>
       <c r="D45">
-        <v>-3.681797249466674</v>
+        <v>-3.721943367581461</v>
       </c>
       <c r="E45">
-        <v>3.742050275375338</v>
+        <v>3.690493410907679</v>
       </c>
       <c r="F45">
-        <v>-0.3892317596539741</v>
+        <v>-1.125211300774254</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="B46">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.0007658740302186329</v>
+        <v>0.03915227174578018</v>
       </c>
       <c r="D46">
-        <v>-3.712015175465686</v>
+        <v>-3.666603591031458</v>
       </c>
       <c r="E46">
-        <v>3.710483427405248</v>
+        <v>3.744908134523018</v>
       </c>
       <c r="F46">
-        <v>-0.9305429974171275</v>
+        <v>1.208676792640873</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B47">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.02720912882806742</v>
+        <v>-0.05110086999282915</v>
       </c>
       <c r="D47">
-        <v>-3.683502131512728</v>
+        <v>-3.756421416937539</v>
       </c>
       <c r="E47">
-        <v>3.737920389168863</v>
+        <v>3.654219676951881</v>
       </c>
       <c r="F47">
-        <v>-0.8730802515184877</v>
+        <v>1.982552957054118</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="B48">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C48">
-        <v>0.01423198598233072</v>
+        <v>-0.03747840668920033</v>
       </c>
       <c r="D48">
-        <v>-3.695931013625908</v>
+        <v>-3.7429095887922</v>
       </c>
       <c r="E48">
-        <v>3.724394985590569</v>
+        <v>3.6679527754138</v>
       </c>
       <c r="F48">
-        <v>-0.730657518243838</v>
+        <v>0.652211671176417</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="B49">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C49">
-        <v>0.01528604123999378</v>
+        <v>-0.004001091280856239</v>
       </c>
       <c r="D49">
-        <v>-3.694278430155139</v>
+        <v>-3.708821360022118</v>
       </c>
       <c r="E49">
-        <v>3.724850512635126</v>
+        <v>3.700819177460406</v>
       </c>
       <c r="F49">
-        <v>0.796816964917646</v>
+        <v>-1.870133243258998</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="B50">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.02909692102730477</v>
+        <v>0.05570244353493214</v>
       </c>
       <c r="D50">
-        <v>-3.738074355187349</v>
+        <v>-3.649100033483509</v>
       </c>
       <c r="E50">
-        <v>3.679880513132739</v>
+        <v>3.760504920553373</v>
       </c>
       <c r="F50">
-        <v>-1.700891430132678</v>
+        <v>2.032523665434205</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="B51">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.06097910945992535</v>
+        <v>-0.08190248215994989</v>
       </c>
       <c r="D51">
-        <v>-3.647843010017915</v>
+        <v>-3.786770737365322</v>
       </c>
       <c r="E51">
-        <v>3.769801228937766</v>
+        <v>3.622965773045423</v>
       </c>
       <c r="F51">
-        <v>0.5534605322862873</v>
+        <v>-1.487563188677754</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="B52">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.04072798553990853</v>
+        <v>0.07696844417457527</v>
       </c>
       <c r="D52">
-        <v>-3.748890925847802</v>
+        <v>-3.627584981250774</v>
       </c>
       <c r="E52">
-        <v>3.667434954767986</v>
+        <v>3.781521869599924</v>
       </c>
       <c r="F52">
-        <v>-0.6039273514243604</v>
+        <v>0.5256253888827445</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B53">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.03412157577968974</v>
+        <v>-0.04643169398443692</v>
       </c>
       <c r="D53">
-        <v>-3.673397253046782</v>
+        <v>-3.750321368839683</v>
       </c>
       <c r="E53">
-        <v>3.741640404606161</v>
+        <v>3.657457980870809</v>
       </c>
       <c r="F53">
-        <v>0.01682510309333196</v>
+        <v>-0.8555498056045607</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B54">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C54">
-        <v>-0.01430834400688961</v>
+        <v>0.04440019432852277</v>
       </c>
       <c r="D54">
-        <v>-3.72112097248142</v>
+        <v>-3.65891520505894</v>
       </c>
       <c r="E54">
-        <v>3.692504284467641</v>
+        <v>3.747715593715986</v>
       </c>
       <c r="F54">
-        <v>0.7375159141924215</v>
+        <v>0.1321004155112604</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="B55">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.01572497833689118</v>
+        <v>-0.02184713141374573</v>
       </c>
       <c r="D55">
-        <v>-3.721943367581461</v>
+        <v>-3.724461514386383</v>
       </c>
       <c r="E55">
-        <v>3.690493410907679</v>
+        <v>3.680767251558891</v>
       </c>
       <c r="F55">
-        <v>-1.125211300774254</v>
+        <v>-0.6456441598912122</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="B56">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.03915227174578018</v>
+        <v>0.0281652582581508</v>
       </c>
       <c r="D56">
-        <v>-3.666603591031458</v>
+        <v>-3.673823458187067</v>
       </c>
       <c r="E56">
-        <v>3.744908134523018</v>
+        <v>3.730153974703368</v>
       </c>
       <c r="F56">
-        <v>1.208676792640873</v>
+        <v>0.4804913560439772</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="B57">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.05110086999282915</v>
+        <v>-0.02579815804134755</v>
       </c>
       <c r="D57">
-        <v>-3.756421416937539</v>
+        <v>-3.727125345919013</v>
       </c>
       <c r="E57">
-        <v>3.654219676951881</v>
+        <v>3.675529029836318</v>
       </c>
       <c r="F57">
-        <v>1.982552957054118</v>
+        <v>0.3629768050577908</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="B58">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.03747840668920033</v>
+        <v>-0.0003580437922984792</v>
       </c>
       <c r="D58">
-        <v>-3.7429095887922</v>
+        <v>-3.701013643812056</v>
       </c>
       <c r="E58">
-        <v>3.6679527754138</v>
+        <v>3.700297556227459</v>
       </c>
       <c r="F58">
-        <v>0.652211671176417</v>
+        <v>-1.35966279659705</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B59">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.004001091280856239</v>
+        <v>0.04076308823029051</v>
       </c>
       <c r="D59">
-        <v>-3.708821360022118</v>
+        <v>-3.659554963701831</v>
       </c>
       <c r="E59">
-        <v>3.700819177460406</v>
+        <v>3.741081140162413</v>
       </c>
       <c r="F59">
-        <v>-1.870133243258998</v>
+        <v>-1.547810173427244</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.05570244353493214</v>
+        <v>0.02940522304926019</v>
       </c>
       <c r="D60">
-        <v>-3.649100033483509</v>
+        <v>-3.67070804823881</v>
       </c>
       <c r="E60">
-        <v>3.760504920553373</v>
+        <v>3.72951849433733</v>
       </c>
       <c r="F60">
-        <v>2.032523665434205</v>
+        <v>-2.558738375193137</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="B61">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="C61">
-        <v>-0.08190248215994989</v>
+        <v>0.06295828238814072</v>
       </c>
       <c r="D61">
-        <v>-3.786770737365322</v>
+        <v>-3.637770360831729</v>
       </c>
       <c r="E61">
-        <v>3.622965773045423</v>
+        <v>3.763686925608011</v>
       </c>
       <c r="F61">
-        <v>-1.487563188677754</v>
+        <v>1.141485932947361</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="B62">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.07696844417457527</v>
+        <v>-0.05971047206252961</v>
       </c>
       <c r="D62">
-        <v>-3.627584981250774</v>
+        <v>-3.759967387422408</v>
       </c>
       <c r="E62">
-        <v>3.781521869599924</v>
+        <v>3.64054644329735</v>
       </c>
       <c r="F62">
-        <v>0.5256253888827445</v>
+        <v>-1.647198057892041</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="B63">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.04643169398443692</v>
+        <v>0.07383885979112526</v>
       </c>
       <c r="D63">
-        <v>-3.750321368839683</v>
+        <v>-3.626212821024611</v>
       </c>
       <c r="E63">
-        <v>3.657457980870809</v>
+        <v>3.773890540606862</v>
       </c>
       <c r="F63">
-        <v>-0.8555498056045607</v>
+        <v>1.147240116223713</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="B64">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.04440019432852277</v>
+        <v>-0.06520353768034653</v>
       </c>
       <c r="D64">
-        <v>-3.65891520505894</v>
+        <v>-3.764781632221608</v>
       </c>
       <c r="E64">
-        <v>3.747715593715986</v>
+        <v>3.634374556860915</v>
       </c>
       <c r="F64">
-        <v>0.1321004155112604</v>
+        <v>1.611555535659193</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B65">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="C65">
-        <v>-0.02184713141374573</v>
+        <v>-0.0218615098902788</v>
       </c>
       <c r="D65">
-        <v>-3.724461514386383</v>
+        <v>-3.721292070296061</v>
       </c>
       <c r="E65">
-        <v>3.680767251558891</v>
+        <v>3.677569050515503</v>
       </c>
       <c r="F65">
-        <v>-0.6456441598912122</v>
+        <v>-2.044569116029038</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="B66">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.0281652582581508</v>
+        <v>0.07069677134467434</v>
       </c>
       <c r="D66">
-        <v>-3.673823458187067</v>
+        <v>-3.62883735123707</v>
       </c>
       <c r="E66">
-        <v>3.730153974703368</v>
+        <v>3.770230893926418</v>
       </c>
       <c r="F66">
-        <v>0.4804913560439772</v>
+        <v>0.7436264271696302</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="B67">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.02579815804134755</v>
+        <v>-0.05042849951913325</v>
       </c>
       <c r="D67">
-        <v>-3.727125345919013</v>
+        <v>-3.749352810787674</v>
       </c>
       <c r="E67">
-        <v>3.675529029836318</v>
+        <v>3.648495811749407</v>
       </c>
       <c r="F67">
-        <v>0.3629768050577908</v>
+        <v>-3.274962147164651</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="B68">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.0003580437922984792</v>
+        <v>0.1206864004233286</v>
       </c>
       <c r="D68">
-        <v>-3.701013643812056</v>
+        <v>-3.579576836491408</v>
       </c>
       <c r="E68">
-        <v>3.700297556227459</v>
+        <v>3.820949637338066</v>
       </c>
       <c r="F68">
-        <v>-1.35966279659705</v>
+        <v>-0.6608937157075445</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="B69">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="C69">
-        <v>0.04076308823029051</v>
+        <v>-0.02778797521987131</v>
       </c>
       <c r="D69">
-        <v>-3.659554963701831</v>
+        <v>-3.727472560633507</v>
       </c>
       <c r="E69">
-        <v>3.741081140162413</v>
+        <v>3.671896610193765</v>
       </c>
       <c r="F69">
-        <v>-1.547810173427244</v>
+        <v>-0.6652905955551347</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="B70">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.02940522304926019</v>
+        <v>0.0316098231104352</v>
       </c>
       <c r="D70">
-        <v>-3.67070804823881</v>
+        <v>-3.66745631483841</v>
       </c>
       <c r="E70">
-        <v>3.72951849433733</v>
+        <v>3.730675961059281</v>
       </c>
       <c r="F70">
-        <v>-2.558738375193137</v>
+        <v>-1.380585052480576</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="B71">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.06295828238814072</v>
+        <v>0.02941521299229932</v>
       </c>
       <c r="D71">
-        <v>-3.637770360831729</v>
+        <v>-3.669344020913644</v>
       </c>
       <c r="E71">
-        <v>3.763686925608011</v>
+        <v>3.728174446898243</v>
       </c>
       <c r="F71">
-        <v>1.141485932947361</v>
+        <v>1.902403600469604</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="B72">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C72">
-        <v>-0.05971047206252961</v>
+        <v>-0.06995180973886805</v>
       </c>
       <c r="D72">
-        <v>-3.759967387422408</v>
+        <v>-3.768700595822705</v>
       </c>
       <c r="E72">
-        <v>3.64054644329735</v>
+        <v>3.628796976344969</v>
       </c>
       <c r="F72">
-        <v>-1.647198057892041</v>
+        <v>-0.6301218076728787</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="B73">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="C73">
-        <v>0.07383885979112526</v>
+        <v>0.04676407314623737</v>
       </c>
       <c r="D73">
-        <v>-3.626212821024611</v>
+        <v>-3.651349222331655</v>
       </c>
       <c r="E73">
-        <v>3.773890540606862</v>
+        <v>3.74487736862413</v>
       </c>
       <c r="F73">
-        <v>1.147240116223713</v>
+        <v>0.2345089917513477</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="B74">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.06520353768034653</v>
+        <v>-0.02544510795192358</v>
       </c>
       <c r="D74">
-        <v>-3.764781632221608</v>
+        <v>-3.722868807070312</v>
       </c>
       <c r="E74">
-        <v>3.634374556860915</v>
+        <v>3.671978591166465</v>
       </c>
       <c r="F74">
-        <v>1.611555535659193</v>
+        <v>0.03602954461605634</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="B75">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="C75">
-        <v>-0.0218615098902788</v>
+        <v>0.008817065354647801</v>
       </c>
       <c r="D75">
-        <v>-3.721292070296061</v>
+        <v>-3.687911262866609</v>
       </c>
       <c r="E75">
-        <v>3.677569050515503</v>
+        <v>3.705545393575905</v>
       </c>
       <c r="F75">
-        <v>-2.044569116029038</v>
+        <v>-1.46968081228156</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="B76">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.07069677134467434</v>
+        <v>0.04178597829378761</v>
       </c>
       <c r="D76">
-        <v>-3.62883735123707</v>
+        <v>-3.654674230728046</v>
       </c>
       <c r="E76">
-        <v>3.770230893926418</v>
+        <v>3.738246187315621</v>
       </c>
       <c r="F76">
-        <v>0.7436264271696302</v>
+        <v>0.1461187474589565</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="B77">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.05042849951913325</v>
+        <v>-0.02064586226009631</v>
       </c>
       <c r="D77">
-        <v>-3.749352810787674</v>
+        <v>-3.716412795446431</v>
       </c>
       <c r="E77">
-        <v>3.648495811749407</v>
+        <v>3.675121070926239</v>
       </c>
       <c r="F77">
-        <v>-3.274962147164651</v>
+        <v>1.089137649468874</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="B78">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.1206864004233286</v>
+        <v>-0.02545866091667559</v>
       </c>
       <c r="D78">
-        <v>-3.579576836491408</v>
+        <v>-3.720771365955694</v>
       </c>
       <c r="E78">
-        <v>3.820949637338066</v>
+        <v>3.669854044122343</v>
       </c>
       <c r="F78">
-        <v>-0.6608937157075445</v>
+        <v>-0.6338878419924754</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="B79">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.02778797521987131</v>
+        <v>0.02927596760964249</v>
       </c>
       <c r="D79">
-        <v>-3.727472560633507</v>
+        <v>-3.665414440882153</v>
       </c>
       <c r="E79">
-        <v>3.671896610193765</v>
+        <v>3.723966376101437</v>
       </c>
       <c r="F79">
-        <v>-0.6652905955551347</v>
+        <v>1.174040397648923</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="B80">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.0316098231104352</v>
+        <v>-0.04748038107757602</v>
       </c>
       <c r="D80">
-        <v>-3.66745631483841</v>
+        <v>-3.741732538142136</v>
       </c>
       <c r="E80">
-        <v>3.730675961059281</v>
+        <v>3.646771775986984</v>
       </c>
       <c r="F80">
-        <v>-1.380585052480576</v>
+        <v>-0.865650130562301</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="B81">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.02941521299229932</v>
+        <v>0.04512281350314001</v>
       </c>
       <c r="D81">
-        <v>-3.669344020913644</v>
+        <v>-3.648566103797731</v>
       </c>
       <c r="E81">
-        <v>3.728174446898243</v>
+        <v>3.738811730804011</v>
       </c>
       <c r="F81">
-        <v>1.902403600469604</v>
+        <v>3.453529394486488</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="B82">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C82">
-        <v>-0.06995180973886805</v>
+        <v>-0.1260060194863761</v>
       </c>
       <c r="D82">
-        <v>-3.768700595822705</v>
+        <v>-3.821268858116486</v>
       </c>
       <c r="E82">
-        <v>3.628796976344969</v>
+        <v>3.569256819143733</v>
       </c>
       <c r="F82">
-        <v>-0.6301218076728787</v>
+        <v>0.2795738322827646</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="B83">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="C83">
-        <v>0.04676407314623737</v>
+        <v>0.04034865297802769</v>
       </c>
       <c r="D83">
-        <v>-3.651349222331655</v>
+        <v>-3.654252629439927</v>
       </c>
       <c r="E83">
-        <v>3.74487736862413</v>
+        <v>3.734949935395982</v>
       </c>
       <c r="F83">
-        <v>0.2345089917513477</v>
+        <v>-2.544756509258939</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="B84">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.02544510795192358</v>
+        <v>0.06499445175188401</v>
       </c>
       <c r="D84">
-        <v>-3.722868807070312</v>
+        <v>-3.630216544292353</v>
       </c>
       <c r="E84">
-        <v>3.671978591166465</v>
+        <v>3.760205447796121</v>
       </c>
       <c r="F84">
-        <v>0.03602954461605634</v>
+        <v>1.580428882078522</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="B85">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.008817065354647801</v>
+        <v>-0.07415660982997108</v>
       </c>
       <c r="D85">
-        <v>-3.687911262866609</v>
+        <v>-3.76912213578775</v>
       </c>
       <c r="E85">
-        <v>3.705545393575905</v>
+        <v>3.620808916127808</v>
       </c>
       <c r="F85">
-        <v>-1.46968081228156</v>
+        <v>0.07044734352632531</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="B86">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.04178597829378761</v>
+        <v>0.02484293795552734</v>
       </c>
       <c r="D86">
-        <v>-3.654674230728046</v>
+        <v>-3.669433879681997</v>
       </c>
       <c r="E86">
-        <v>3.738246187315621</v>
+        <v>3.719119755593052</v>
       </c>
       <c r="F86">
-        <v>0.1461187474589565</v>
+        <v>-2.658260172051818</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="B87">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.02064586226009631</v>
+        <v>0.07505078181242353</v>
       </c>
       <c r="D87">
-        <v>-3.716412795446431</v>
+        <v>-3.619936476703169</v>
       </c>
       <c r="E87">
-        <v>3.675121070926239</v>
+        <v>3.770038040328016</v>
       </c>
       <c r="F87">
-        <v>1.089137649468874</v>
+        <v>-1.237054159896189</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="B88">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.02545866091667559</v>
+        <v>0.01180380699823186</v>
       </c>
       <c r="D88">
-        <v>-3.720771365955694</v>
+        <v>-3.682826081367273</v>
       </c>
       <c r="E88">
-        <v>3.669854044122343</v>
+        <v>3.706433695363737</v>
       </c>
       <c r="F88">
-        <v>-0.6338878419924754</v>
+        <v>-2.427168709711758</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.02927596760964249</v>
+        <v>0.07067850905094686</v>
       </c>
       <c r="D89">
-        <v>-3.665414440882153</v>
+        <v>-3.624417222807142</v>
       </c>
       <c r="E89">
-        <v>3.723966376101437</v>
+        <v>3.765774240909035</v>
       </c>
       <c r="F89">
-        <v>1.174040397648923</v>
+        <v>-0.3946260876199759</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="B90">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.04748038107757602</v>
+        <v>-0.0138908587931629</v>
       </c>
       <c r="D90">
-        <v>-3.741732538142136</v>
+        <v>-3.708336948930818</v>
       </c>
       <c r="E90">
-        <v>3.646771775986984</v>
+        <v>3.680555231344492</v>
       </c>
       <c r="F90">
-        <v>-0.865650130562301</v>
+        <v>0.3383461874383542</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="B91">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.04512281350314001</v>
+        <v>-0.005318011364102732</v>
       </c>
       <c r="D91">
-        <v>-3.648566103797731</v>
+        <v>-3.699096894476964</v>
       </c>
       <c r="E91">
-        <v>3.738811730804011</v>
+        <v>3.688460871748758</v>
       </c>
       <c r="F91">
-        <v>3.453529394486488</v>
+        <v>-1.760575526699171</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="B92">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.1260060194863761</v>
+        <v>0.05625100227891178</v>
       </c>
       <c r="D92">
-        <v>-3.821268858116486</v>
+        <v>-3.637436356986317</v>
       </c>
       <c r="E92">
-        <v>3.569256819143733</v>
+        <v>3.749938361544141</v>
       </c>
       <c r="F92">
-        <v>0.2795738322827646</v>
+        <v>1.309192401829229</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="B93">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C93">
-        <v>0.04034865297802769</v>
+        <v>-0.06121468911406946</v>
       </c>
       <c r="D93">
-        <v>-3.654252629439927</v>
+        <v>-3.754516561696969</v>
       </c>
       <c r="E93">
-        <v>3.734949935395982</v>
+        <v>3.63208718346883</v>
       </c>
       <c r="F93">
-        <v>-2.544756509258939</v>
+        <v>7.724026350365421</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="B94">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C94">
-        <v>0.06499445175188401</v>
+        <v>-0.2104570686493847</v>
       </c>
       <c r="D94">
-        <v>-3.630216544292353</v>
+        <v>-3.91483202557163</v>
       </c>
       <c r="E94">
-        <v>3.760205447796121</v>
+        <v>3.493917888272861</v>
       </c>
       <c r="F94">
-        <v>1.580428882078522</v>
+        <v>1.455075040102649</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="B95">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="C95">
-        <v>-0.07415660982997108</v>
+        <v>0.03179070383960947</v>
       </c>
       <c r="D95">
-        <v>-3.76912213578775</v>
+        <v>-3.672425833659415</v>
       </c>
       <c r="E95">
-        <v>3.620808916127808</v>
+        <v>3.736007241338633</v>
       </c>
       <c r="F95">
-        <v>0.07044734352632531</v>
+        <v>2.143668340297644</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="B96">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.02484293795552734</v>
+        <v>-0.07465682591572331</v>
       </c>
       <c r="D96">
-        <v>-3.669433879681997</v>
+        <v>-3.779043431678097</v>
       </c>
       <c r="E96">
-        <v>3.719119755593052</v>
+        <v>3.62972977984665</v>
       </c>
       <c r="F96">
-        <v>-2.658260172051818</v>
+        <v>1.950224323144134</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="B97">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.07505078181242353</v>
+        <v>-0.02716765140730837</v>
       </c>
       <c r="D97">
-        <v>-3.619936476703169</v>
+        <v>-3.731656208243582</v>
       </c>
       <c r="E97">
-        <v>3.770038040328016</v>
+        <v>3.677320905428965</v>
       </c>
       <c r="F97">
-        <v>-1.237054159896189</v>
+        <v>2.57469004603017</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="B98">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.01180380699823186</v>
+        <v>-0.06155809143946156</v>
       </c>
       <c r="D98">
-        <v>-3.682826081367273</v>
+        <v>-3.76666390306015</v>
       </c>
       <c r="E98">
-        <v>3.706433695363737</v>
+        <v>3.643547720181227</v>
       </c>
       <c r="F98">
-        <v>-2.427168709711758</v>
+        <v>-2.70683410225967</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="B99">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.07067850905094686</v>
+        <v>0.1014078520273141</v>
       </c>
       <c r="D99">
-        <v>-3.624417222807142</v>
+        <v>-3.604359647973118</v>
       </c>
       <c r="E99">
-        <v>3.765774240909035</v>
+        <v>3.807175352027746</v>
       </c>
       <c r="F99">
-        <v>-0.3946260876199759</v>
+        <v>-0.08267879759937813</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="B100">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.0138908587931629</v>
+        <v>-0.03749709771833709</v>
       </c>
       <c r="D100">
-        <v>-3.708336948930818</v>
+        <v>-3.74257997159794</v>
       </c>
       <c r="E100">
-        <v>3.680555231344492</v>
+        <v>3.667585776161265</v>
       </c>
       <c r="F100">
-        <v>0.3383461874383542</v>
+        <v>-0.5474012176028609</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="B101">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="C101">
-        <v>-0.005318011364102732</v>
+        <v>0.03052725436725515</v>
       </c>
       <c r="D101">
-        <v>-3.699096894476964</v>
+        <v>-3.673914939614726</v>
       </c>
       <c r="E101">
-        <v>3.688460871748758</v>
+        <v>3.734969448349236</v>
       </c>
       <c r="F101">
-        <v>-1.760575526699171</v>
+        <v>-0.4334062460220167</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B102">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.05625100227891178</v>
+        <v>0.0002693812380943073</v>
       </c>
       <c r="D102">
-        <v>-3.637436356986317</v>
+        <v>-3.703524046273419</v>
       </c>
       <c r="E102">
-        <v>3.749938361544141</v>
+        <v>3.704062808749607</v>
       </c>
       <c r="F102">
-        <v>1.309192401829229</v>
+        <v>-0.620027122473843</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="B103">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="C103">
-        <v>-0.06121468911406946</v>
+        <v>0.01745861899367332</v>
       </c>
       <c r="D103">
-        <v>-3.754516561696969</v>
+        <v>-3.685719033224994</v>
       </c>
       <c r="E103">
-        <v>3.63208718346883</v>
+        <v>3.72063627121234</v>
       </c>
       <c r="F103">
-        <v>7.724026350365421</v>
+        <v>0.4695631636348452</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B104">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.2104570686493847</v>
+        <v>-0.02021657943046967</v>
       </c>
       <c r="D104">
-        <v>-3.91483202557163</v>
+        <v>-3.72274403791714</v>
       </c>
       <c r="E104">
-        <v>3.493917888272861</v>
+        <v>3.6823108790562</v>
       </c>
       <c r="F104">
-        <v>1.455075040102649</v>
+        <v>3.291394687164484</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B105">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.03179070383960947</v>
+        <v>-0.08458453917586284</v>
       </c>
       <c r="D105">
-        <v>-3.672425833659415</v>
+        <v>-3.788540635603654</v>
       </c>
       <c r="E105">
-        <v>3.736007241338633</v>
+        <v>3.619371557251927</v>
       </c>
       <c r="F105">
-        <v>2.143668340297644</v>
+        <v>2.051025270312046</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B106">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.07465682591572331</v>
+        <v>-0.02292060534753948</v>
       </c>
       <c r="D106">
-        <v>-3.779043431678097</v>
+        <v>-3.727066431598261</v>
       </c>
       <c r="E106">
-        <v>3.62972977984665</v>
+        <v>3.681225220903181</v>
       </c>
       <c r="F106">
-        <v>1.950224323144134</v>
+        <v>0.09511731852196448</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="B107">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.02716765140730837</v>
+        <v>0.006672838500422364</v>
       </c>
       <c r="D107">
-        <v>-3.731656208243582</v>
+        <v>-3.696786588402266</v>
       </c>
       <c r="E107">
-        <v>3.677320905428965</v>
+        <v>3.710132265403111</v>
       </c>
       <c r="F107">
-        <v>2.57469004603017</v>
+        <v>-1.323888863035094</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B108">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.06155809143946156</v>
+        <v>0.03343811561864585</v>
       </c>
       <c r="D108">
-        <v>-3.76666390306015</v>
+        <v>-3.669674115461762</v>
       </c>
       <c r="E108">
-        <v>3.643547720181227</v>
+        <v>3.736550346699053</v>
       </c>
       <c r="F108">
-        <v>-2.70683410225967</v>
+        <v>0.6880577589132741</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B109">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.1014078520273141</v>
+        <v>-0.03245301894078673</v>
       </c>
       <c r="D109">
-        <v>-3.604359647973118</v>
+        <v>-3.734959504559986</v>
       </c>
       <c r="E109">
-        <v>3.807175352027746</v>
+        <v>3.670053466678413</v>
       </c>
       <c r="F109">
-        <v>-0.08267879759937813</v>
+        <v>1.173126960546611</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="B110">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.03749709771833709</v>
+        <v>-0.01908535359032443</v>
       </c>
       <c r="D110">
-        <v>-3.74257997159794</v>
+        <v>-3.721184136804657</v>
       </c>
       <c r="E110">
-        <v>3.667585776161265</v>
+        <v>3.683013429624007</v>
       </c>
       <c r="F110">
-        <v>-0.5474012176028609</v>
+        <v>-0.4264398786457235</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B111">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.03052725436725515</v>
+        <v>0.01936975624267551</v>
       </c>
       <c r="D111">
-        <v>-3.673914939614726</v>
+        <v>-3.682073373806832</v>
       </c>
       <c r="E111">
-        <v>3.734969448349236</v>
+        <v>3.720812886292183</v>
       </c>
       <c r="F111">
-        <v>-0.4334062460220167</v>
+        <v>-1.933739839992299</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B112">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C112">
-        <v>0.0002693812380943073</v>
+        <v>0.04496635860367748</v>
       </c>
       <c r="D112">
-        <v>-3.703524046273419</v>
+        <v>-3.656524540028097</v>
       </c>
       <c r="E112">
-        <v>3.704062808749607</v>
+        <v>3.746457257235452</v>
       </c>
       <c r="F112">
-        <v>-0.620027122473843</v>
+        <v>-0.4690667718941555</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B113">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.01745861899367332</v>
+        <v>-0.005321750407443371</v>
       </c>
       <c r="D113">
-        <v>-3.685719033224994</v>
+        <v>-3.706176451640192</v>
       </c>
       <c r="E113">
-        <v>3.72063627121234</v>
+        <v>3.695532950825306</v>
       </c>
       <c r="F113">
-        <v>0.4695631636348452</v>
+        <v>1.224636639215682</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B114">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.02021657943046967</v>
+        <v>-0.0312256770625074</v>
       </c>
       <c r="D114">
-        <v>-3.72274403791714</v>
+        <v>-3.731685128544601</v>
       </c>
       <c r="E114">
-        <v>3.6823108790562</v>
+        <v>3.669233774419586</v>
       </c>
       <c r="F114">
-        <v>3.291394687164484</v>
+        <v>1.446881111991694</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="B115">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.08458453917586284</v>
+        <v>-0.02658152341349573</v>
       </c>
       <c r="D115">
-        <v>-3.788540635603654</v>
+        <v>-3.726775135476639</v>
       </c>
       <c r="E115">
-        <v>3.619371557251927</v>
+        <v>3.673612088649648</v>
       </c>
       <c r="F115">
-        <v>2.051025270312046</v>
+        <v>-1.095162124310178</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B116">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.02292060534753948</v>
+        <v>0.04044531720212541</v>
       </c>
       <c r="D116">
-        <v>-3.727066431598261</v>
+        <v>-3.659282122712977</v>
       </c>
       <c r="E116">
-        <v>3.681225220903181</v>
+        <v>3.740172757117228</v>
       </c>
       <c r="F116">
-        <v>0.09511731852196448</v>
+        <v>-0.7207526997117242</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B117">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.006672838500422364</v>
+        <v>0.003286667507938767</v>
       </c>
       <c r="D117">
-        <v>-3.696786588402266</v>
+        <v>-3.695866561684098</v>
       </c>
       <c r="E117">
-        <v>3.710132265403111</v>
+        <v>3.702439896699975</v>
       </c>
       <c r="F117">
-        <v>-1.323888863035094</v>
+        <v>-2.226829113583761</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B118">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.03343811561864585</v>
+        <v>0.05871757189538063</v>
       </c>
       <c r="D118">
-        <v>-3.669674115461762</v>
+        <v>-3.640706824758074</v>
       </c>
       <c r="E118">
-        <v>3.736550346699053</v>
+        <v>3.758141968548835</v>
       </c>
       <c r="F118">
-        <v>0.6880577589132741</v>
+        <v>2.451620473495453</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="B119">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.03245301894078673</v>
+        <v>-0.09137993962479118</v>
       </c>
       <c r="D119">
-        <v>-3.734959504559986</v>
+        <v>-3.791219952466187</v>
       </c>
       <c r="E119">
-        <v>3.670053466678413</v>
+        <v>3.608460073216605</v>
       </c>
       <c r="F119">
-        <v>1.173126960546611</v>
+        <v>-2.270981619876622</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="B120">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.01908535359032443</v>
+        <v>0.1017895902617434</v>
       </c>
       <c r="D120">
-        <v>-3.721184136804657</v>
+        <v>-3.598277631613662</v>
       </c>
       <c r="E120">
-        <v>3.683013429624007</v>
+        <v>3.801856812137149</v>
       </c>
       <c r="F120">
-        <v>-0.4264398786457235</v>
+        <v>-1.704351671831539</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="B121">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.01936975624267551</v>
+        <v>0.007039148609777945</v>
       </c>
       <c r="D121">
-        <v>-3.682073373806832</v>
+        <v>-3.692969479702846</v>
       </c>
       <c r="E121">
-        <v>3.720812886292183</v>
+        <v>3.707047776922402</v>
       </c>
       <c r="F121">
-        <v>-1.933739839992299</v>
+        <v>1.540148022457188</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="B122">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C122">
-        <v>0.04496635860367748</v>
+        <v>-0.04626602368472665</v>
       </c>
       <c r="D122">
-        <v>-3.656524540028097</v>
+        <v>-3.746041517350455</v>
       </c>
       <c r="E122">
-        <v>3.746457257235452</v>
+        <v>3.653509469981002</v>
       </c>
       <c r="F122">
-        <v>-0.4690667718941555</v>
+        <v>0.1806091944855481</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="B123">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="C123">
-        <v>-0.005321750407443371</v>
+        <v>0.0129269383352047</v>
       </c>
       <c r="D123">
-        <v>-3.706176451640192</v>
+        <v>-3.686174209230027</v>
       </c>
       <c r="E123">
-        <v>3.695532950825306</v>
+        <v>3.712028085900437</v>
       </c>
       <c r="F123">
-        <v>1.224636639215682</v>
+        <v>0.08198737853692961</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="B124">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.0312256770625074</v>
+        <v>-0.00729547887781145</v>
       </c>
       <c r="D124">
-        <v>-3.731685128544601</v>
+        <v>-3.705713722115969</v>
       </c>
       <c r="E124">
-        <v>3.669233774419586</v>
+        <v>3.691122764360347</v>
       </c>
       <c r="F124">
-        <v>1.446881111991694</v>
+        <v>-1.037986088506848</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="B125">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.02658152341349573</v>
+        <v>0.03161180088204163</v>
       </c>
       <c r="D125">
-        <v>-3.726775135476639</v>
+        <v>-3.666326872493788</v>
       </c>
       <c r="E125">
-        <v>3.673612088649648</v>
+        <v>3.729550474257872</v>
       </c>
       <c r="F125">
-        <v>-1.095162124310178</v>
+        <v>3.450863246366254</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="B126">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.04044531720212541</v>
+        <v>-0.1092367842966511</v>
       </c>
       <c r="D126">
-        <v>-3.659282122712977</v>
+        <v>-3.808735174444657</v>
       </c>
       <c r="E126">
-        <v>3.740172757117228</v>
+        <v>3.590261605851355</v>
       </c>
       <c r="F126">
-        <v>-0.7207526997117242</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B127">
-        <v>2698</v>
-      </c>
-      <c r="C127">
-        <v>0.003286667507938767</v>
-      </c>
-      <c r="D127">
-        <v>-3.695866561684098</v>
-      </c>
-      <c r="E127">
-        <v>3.702439896699975</v>
-      </c>
-      <c r="F127">
-        <v>-2.226829113583761</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B128">
-        <v>2699</v>
-      </c>
-      <c r="C128">
-        <v>0.05871757189538063</v>
-      </c>
-      <c r="D128">
-        <v>-3.640706824758074</v>
-      </c>
-      <c r="E128">
-        <v>3.758141968548835</v>
-      </c>
-      <c r="F128">
-        <v>2.451620473495453</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B129">
-        <v>2700</v>
-      </c>
-      <c r="C129">
-        <v>-0.09137993962479118</v>
-      </c>
-      <c r="D129">
-        <v>-3.791219952466187</v>
-      </c>
-      <c r="E129">
-        <v>3.608460073216605</v>
-      </c>
-      <c r="F129">
-        <v>-2.270981619876622</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B130">
-        <v>2701</v>
-      </c>
-      <c r="C130">
-        <v>0.1017895902617434</v>
-      </c>
-      <c r="D130">
-        <v>-3.598277631613662</v>
-      </c>
-      <c r="E130">
-        <v>3.801856812137149</v>
-      </c>
-      <c r="F130">
-        <v>-1.704351671831539</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B131">
-        <v>2702</v>
-      </c>
-      <c r="C131">
-        <v>0.007039148609777945</v>
-      </c>
-      <c r="D131">
-        <v>-3.692969479702846</v>
-      </c>
-      <c r="E131">
-        <v>3.707047776922402</v>
-      </c>
-      <c r="F131">
-        <v>1.540148022457188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B132">
-        <v>2703</v>
-      </c>
-      <c r="C132">
-        <v>-0.04626602368472665</v>
-      </c>
-      <c r="D132">
-        <v>-3.746041517350455</v>
-      </c>
-      <c r="E132">
-        <v>3.653509469981002</v>
-      </c>
-      <c r="F132">
-        <v>0.1806091944855481</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B133">
-        <v>2704</v>
-      </c>
-      <c r="C133">
-        <v>0.0129269383352047</v>
-      </c>
-      <c r="D133">
-        <v>-3.686174209230027</v>
-      </c>
-      <c r="E133">
-        <v>3.712028085900437</v>
-      </c>
-      <c r="F133">
-        <v>0.08198737853692961</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B134">
-        <v>2705</v>
-      </c>
-      <c r="C134">
-        <v>-0.00729547887781145</v>
-      </c>
-      <c r="D134">
-        <v>-3.705713722115969</v>
-      </c>
-      <c r="E134">
-        <v>3.691122764360347</v>
-      </c>
-      <c r="F134">
-        <v>-1.037986088506848</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B135">
-        <v>2706</v>
-      </c>
-      <c r="C135">
-        <v>0.03161180088204163</v>
-      </c>
-      <c r="D135">
-        <v>-3.666326872493788</v>
-      </c>
-      <c r="E135">
-        <v>3.729550474257872</v>
-      </c>
-      <c r="F135">
-        <v>3.450863246366254</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B136">
-        <v>2707</v>
-      </c>
-      <c r="C136">
-        <v>-0.1092367842966511</v>
-      </c>
-      <c r="D136">
-        <v>-3.808735174444657</v>
-      </c>
-      <c r="E136">
-        <v>3.590261605851355</v>
-      </c>
-      <c r="F136">
         <v>-1.029278948543144</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/keyence.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>0.004413929786342788</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-3.715211737824142</v>
+        <v>-3.721662964667225</v>
       </c>
       <c r="E2">
-        <v>3.724039597396827</v>
+        <v>3.721662964667225</v>
       </c>
       <c r="F2">
         <v>-1.275889153906107</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.03599149614096087</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-3.683242013872431</v>
+        <v>-3.721267953736121</v>
       </c>
       <c r="E3">
-        <v>3.755225006154352</v>
+        <v>3.721267953736121</v>
       </c>
       <c r="F3">
         <v>-0.3859628835343187</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>-0.003470486038052861</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-3.722020089944776</v>
+        <v>-3.720577854244047</v>
       </c>
       <c r="E4">
-        <v>3.71507911786867</v>
+        <v>3.720577854244047</v>
       </c>
       <c r="F4">
         <v>0.07158708874701603</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.0006811678836191638</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.718512854894635</v>
+        <v>-3.71985943870286</v>
       </c>
       <c r="E5">
-        <v>3.717150519127396</v>
+        <v>3.71985943870286</v>
       </c>
       <c r="F5">
         <v>-1.49966761540874</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>0.04469354024750916</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-3.672868353991792</v>
+        <v>-3.719589376150036</v>
       </c>
       <c r="E6">
-        <v>3.76225543448681</v>
+        <v>3.719589376150036</v>
       </c>
       <c r="F6">
         <v>-1.301473367783501</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>0.01983606759585266</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-3.697369214588702</v>
+        <v>-3.71920871620736</v>
       </c>
       <c r="E7">
-        <v>3.737041349780407</v>
+        <v>3.71920871620736</v>
       </c>
       <c r="F7">
         <v>-0.1178203376353437</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.004772636057482543</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-3.721263733454803</v>
+        <v>-3.718493145193536</v>
       </c>
       <c r="E8">
-        <v>3.711718461339837</v>
+        <v>3.718493145193536</v>
       </c>
       <c r="F8">
         <v>-1.335133317486381</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.0412398950008791</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-3.674886888204967</v>
+        <v>-3.718130792232885</v>
       </c>
       <c r="E9">
-        <v>3.757366678206726</v>
+        <v>3.718130792232885</v>
       </c>
       <c r="F9">
         <v>2.768954516211863</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>-0.09968236921915974</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-3.816576040229637</v>
+        <v>-3.718941892988678</v>
       </c>
       <c r="E10">
-        <v>3.617211301791318</v>
+        <v>3.718941892988678</v>
       </c>
       <c r="F10">
         <v>-0.4659297887419811</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>0.0552294916148478</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-3.660973838931024</v>
+        <v>-3.718267701622258</v>
       </c>
       <c r="E11">
-        <v>3.771432822160719</v>
+        <v>3.718267701622258</v>
       </c>
       <c r="F11">
         <v>-0.9826287175041415</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>0.00706895495302079</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-3.708632498370262</v>
+        <v>-3.717743044168778</v>
       </c>
       <c r="E12">
-        <v>3.722770408276304</v>
+        <v>3.717743044168778</v>
       </c>
       <c r="F12">
         <v>2.575249610241492</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>-0.08095770751653419</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-3.797256988639085</v>
+        <v>-3.71834729541628</v>
       </c>
       <c r="E13">
-        <v>3.635341573606017</v>
+        <v>3.71834729541628</v>
       </c>
       <c r="F13">
         <v>-1.665618925032142</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.08271997757795069</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-3.633363172306469</v>
+        <v>-3.718183110454655</v>
       </c>
       <c r="E14">
-        <v>3.79880312746237</v>
+        <v>3.718183110454655</v>
       </c>
       <c r="F14">
         <v>-0.08766803600650519</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.02917063086054528</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-3.744543768361359</v>
+        <v>-3.717468434236281</v>
       </c>
       <c r="E15">
-        <v>3.686202506640269</v>
+        <v>3.717468434236281</v>
       </c>
       <c r="F15">
         <v>-2.037873240304044</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>0.07427507399027911</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-3.641185091560629</v>
+        <v>-3.717578969956873</v>
       </c>
       <c r="E16">
-        <v>3.789735239541186</v>
+        <v>3.717578969956873</v>
       </c>
       <c r="F16">
         <v>-1.59401871350866</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>0.01938210345275648</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-3.6959166329189</v>
+        <v>-3.717368818278434</v>
       </c>
       <c r="E17">
-        <v>3.734680839824413</v>
+        <v>3.717368818278434</v>
       </c>
       <c r="F17">
         <v>-0.883075166159486</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>0.01911282417283083</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-3.695632822712261</v>
+        <v>-3.716808659468654</v>
       </c>
       <c r="E18">
-        <v>3.733858471057923</v>
+        <v>3.716808659468654</v>
       </c>
       <c r="F18">
         <v>0.6098509524722573</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.02600963654004976</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-3.740110235949098</v>
+        <v>-3.716167757409635</v>
       </c>
       <c r="E19">
-        <v>3.688090962868999</v>
+        <v>3.716167757409635</v>
       </c>
       <c r="F19">
         <v>-0.6710411027675889</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>0.03065504356924043</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-3.682814227151014</v>
+        <v>-3.715542815839067</v>
       </c>
       <c r="E20">
-        <v>3.744124314289495</v>
+        <v>3.715542815839067</v>
       </c>
       <c r="F20">
         <v>1.894713747611299</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>-0.06981164845774257</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-3.783257913719768</v>
+        <v>-3.715542084331407</v>
       </c>
       <c r="E21">
-        <v>3.643634616804283</v>
+        <v>3.715542084331407</v>
       </c>
       <c r="F21">
         <v>0.1500375375233176</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>0.0234505551889241</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-3.689291948993918</v>
+        <v>-3.714832783612988</v>
       </c>
       <c r="E22">
-        <v>3.736193059371767</v>
+        <v>3.714832783612988</v>
       </c>
       <c r="F22">
         <v>1.221889736612525</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>-0.04667850989721078</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-3.758993191256509</v>
+        <v>-3.714415926561115</v>
       </c>
       <c r="E23">
-        <v>3.665636171462088</v>
+        <v>3.714415926561115</v>
       </c>
       <c r="F23">
         <v>0.7230902899845404</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.003045700581036537</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-3.714765516683935</v>
+        <v>-3.713806730097736</v>
       </c>
       <c r="E24">
-        <v>3.708674115521862</v>
+        <v>3.713806730097736</v>
       </c>
       <c r="F24">
         <v>-2.215209886282032</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.068687190310741</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-3.6432923073987</v>
+        <v>-3.714068080239442</v>
       </c>
       <c r="E25">
-        <v>3.780666688020183</v>
+        <v>3.714068080239442</v>
       </c>
       <c r="F25">
         <v>-0.3463598071427043</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>-0.01672788064149877</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-3.728029490904799</v>
+        <v>-3.713379488662426</v>
       </c>
       <c r="E26">
-        <v>3.694573729621802</v>
+        <v>3.713379488662426</v>
       </c>
       <c r="F26">
         <v>0.5716020376668851</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.01068945145464684</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-3.721348218668696</v>
+        <v>-3.712732314002252</v>
       </c>
       <c r="E27">
-        <v>3.699969315759403</v>
+        <v>3.712732314002252</v>
       </c>
       <c r="F27">
         <v>-0.6621544133080803</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>0.02429650708013059</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-3.685735330023641</v>
+        <v>-3.712107680114576</v>
       </c>
       <c r="E28">
-        <v>3.734328344183902</v>
+        <v>3.712107680114576</v>
       </c>
       <c r="F28">
         <v>0.06037736032471486</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.01141634297436266</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-3.720737637223019</v>
+        <v>-3.711397203103136</v>
       </c>
       <c r="E29">
-        <v>3.697904951274294</v>
+        <v>3.711397203103136</v>
       </c>
       <c r="F29">
         <v>0.4216238740985645</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.008266596343144778</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-3.716914707939887</v>
+        <v>-3.710721654428426</v>
       </c>
       <c r="E30">
-        <v>3.700381515253597</v>
+        <v>3.710721654428426</v>
       </c>
       <c r="F30">
         <v>0.180153178884801</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.002193723909245174</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-3.710138874780163</v>
+        <v>-3.710017697574143</v>
       </c>
       <c r="E31">
-        <v>3.705751426961673</v>
+        <v>3.710017697574143</v>
       </c>
       <c r="F31">
         <v>-4.462904214801</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.1360643599740534</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-3.575114601423265</v>
+        <v>-3.713252778873594</v>
       </c>
       <c r="E32">
-        <v>3.847243321371372</v>
+        <v>3.713252778873594</v>
       </c>
       <c r="F32">
         <v>-3.576370928456996</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.0499442081875221</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-3.663247361438549</v>
+        <v>-3.71507315759303</v>
       </c>
       <c r="E33">
-        <v>3.763135777813593</v>
+        <v>3.71507315759303</v>
       </c>
       <c r="F33">
         <v>0.8417013110948446</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.04483356416599449</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-3.757439145086909</v>
+        <v>-3.714502849285773</v>
       </c>
       <c r="E34">
-        <v>3.66777201675492</v>
+        <v>3.714502849285773</v>
       </c>
       <c r="F34">
         <v>-0.4199650817902523</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>0.03012651295433177</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-3.681797249466674</v>
+        <v>-3.713827692858217</v>
       </c>
       <c r="E35">
-        <v>3.742050275375338</v>
+        <v>3.713827692858217</v>
       </c>
       <c r="F35">
         <v>-0.3892317596539741</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.0007658740302186329</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-3.712015175465686</v>
+        <v>-3.713148013925546</v>
       </c>
       <c r="E36">
-        <v>3.710483427405248</v>
+        <v>3.713148013925546</v>
       </c>
       <c r="F36">
         <v>-0.9305429974171275</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.02720912882806742</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-3.683502131512728</v>
+        <v>-3.712609914852165</v>
       </c>
       <c r="E37">
-        <v>3.737920389168863</v>
+        <v>3.712609914852165</v>
       </c>
       <c r="F37">
         <v>-0.8730802515184877</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.01423198598233072</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-3.695931013625908</v>
+        <v>-3.712051671912133</v>
       </c>
       <c r="E38">
-        <v>3.724394985590569</v>
+        <v>3.712051671912133</v>
       </c>
       <c r="F38">
         <v>-0.730657518243838</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.01528604123999378</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-3.694278430155139</v>
+        <v>-3.711448653493024</v>
       </c>
       <c r="E39">
-        <v>3.724850512635126</v>
+        <v>3.711448653493024</v>
       </c>
       <c r="F39">
         <v>0.796816964917646</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.02909692102730477</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-3.738074355187349</v>
+        <v>-3.710865954871334</v>
       </c>
       <c r="E40">
-        <v>3.679880513132739</v>
+        <v>3.710865954871334</v>
       </c>
       <c r="F40">
         <v>-1.700891430132678</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>0.06097910945992535</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-3.647843010017915</v>
+        <v>-3.710729432030608</v>
       </c>
       <c r="E41">
-        <v>3.769801228937766</v>
+        <v>3.710729432030608</v>
       </c>
       <c r="F41">
         <v>0.5534605322862873</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>-0.04072798553990853</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-3.748890925847802</v>
+        <v>-3.71008248131797</v>
       </c>
       <c r="E42">
-        <v>3.667434954767986</v>
+        <v>3.71008248131797</v>
       </c>
       <c r="F42">
         <v>-0.6039273514243604</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.03412157577968974</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-3.673397253046782</v>
+        <v>-3.70944743742953</v>
       </c>
       <c r="E43">
-        <v>3.741640404606161</v>
+        <v>3.70944743742953</v>
       </c>
       <c r="F43">
         <v>0.01682510309333196</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.01430834400688961</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-3.72112097248142</v>
+        <v>-3.70874086456089</v>
       </c>
       <c r="E44">
-        <v>3.692504284467641</v>
+        <v>3.70874086456089</v>
       </c>
       <c r="F44">
         <v>0.7375159141924215</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.01572497833689118</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-3.721943367581461</v>
+        <v>-3.7081419346666</v>
       </c>
       <c r="E45">
-        <v>3.690493410907679</v>
+        <v>3.7081419346666</v>
       </c>
       <c r="F45">
         <v>-1.125211300774254</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>0.03915227174578018</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-3.666603591031458</v>
+        <v>-3.707685782930739</v>
       </c>
       <c r="E46">
-        <v>3.744908134523018</v>
+        <v>3.707685782930739</v>
       </c>
       <c r="F46">
         <v>1.208676792640873</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>-0.05110086999282915</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-3.756421416937539</v>
+        <v>-3.707268327653856</v>
       </c>
       <c r="E47">
-        <v>3.654219676951881</v>
+        <v>3.707268327653856</v>
       </c>
       <c r="F47">
         <v>1.982552957054118</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.03747840668920033</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-3.7429095887922</v>
+        <v>-3.707337872244598</v>
       </c>
       <c r="E48">
-        <v>3.6679527754138</v>
+        <v>3.707337872244598</v>
       </c>
       <c r="F48">
         <v>0.652211671176417</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.004001091280856239</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-3.708821360022118</v>
+        <v>-3.706716802624057</v>
       </c>
       <c r="E49">
-        <v>3.700819177460406</v>
+        <v>3.706716802624057</v>
       </c>
       <c r="F49">
         <v>-1.870133243258998</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>0.05570244353493214</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-3.649100033483509</v>
+        <v>-3.706701209258384</v>
       </c>
       <c r="E50">
-        <v>3.760504920553373</v>
+        <v>3.706701209258384</v>
       </c>
       <c r="F50">
         <v>2.032523665434205</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>-0.08190248215994989</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-3.786770737365322</v>
+        <v>-3.706810401643098</v>
       </c>
       <c r="E51">
-        <v>3.622965773045423</v>
+        <v>3.706810401643098</v>
       </c>
       <c r="F51">
         <v>-1.487563188677754</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>0.07696844417457527</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-3.627584981250774</v>
+        <v>-3.706541971644397</v>
       </c>
       <c r="E52">
-        <v>3.781521869599924</v>
+        <v>3.706541971644397</v>
       </c>
       <c r="F52">
         <v>0.5256253888827445</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>-0.04643169398443692</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-3.750321368839683</v>
+        <v>-3.705892675436882</v>
       </c>
       <c r="E53">
-        <v>3.657457980870809</v>
+        <v>3.705892675436882</v>
       </c>
       <c r="F53">
         <v>-0.8555498056045607</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.04440019432852277</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-3.65891520505894</v>
+        <v>-3.705333406838432</v>
       </c>
       <c r="E54">
-        <v>3.747715593715986</v>
+        <v>3.705333406838432</v>
       </c>
       <c r="F54">
         <v>0.1321004155112604</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.02184713141374573</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-3.724461514386383</v>
+        <v>-3.704633939996839</v>
       </c>
       <c r="E55">
-        <v>3.680767251558891</v>
+        <v>3.704633939996839</v>
       </c>
       <c r="F55">
         <v>-0.6456441598912122</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>0.0281652582581508</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-3.673823458187067</v>
+        <v>-3.704013416710067</v>
       </c>
       <c r="E56">
-        <v>3.730153974703368</v>
+        <v>3.704013416710067</v>
       </c>
       <c r="F56">
         <v>0.4804913560439772</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.02579815804134755</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-3.727125345919013</v>
+        <v>-3.703356693276717</v>
       </c>
       <c r="E57">
-        <v>3.675529029836318</v>
+        <v>3.703356693276717</v>
       </c>
       <c r="F57">
         <v>0.3629768050577908</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.0003580437922984792</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-3.701013643812056</v>
+        <v>-3.702680866864596</v>
       </c>
       <c r="E58">
-        <v>3.700297556227459</v>
+        <v>3.702680866864596</v>
       </c>
       <c r="F58">
         <v>-1.35966279659705</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>0.04076308823029051</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-3.659554963701831</v>
+        <v>-3.702342851798554</v>
       </c>
       <c r="E59">
-        <v>3.741081140162413</v>
+        <v>3.702342851798554</v>
       </c>
       <c r="F59">
         <v>-1.547810173427244</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>0.02940522304926019</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-3.67070804823881</v>
+        <v>-3.702112531147015</v>
       </c>
       <c r="E60">
-        <v>3.72951849433733</v>
+        <v>3.702112531147015</v>
       </c>
       <c r="F60">
         <v>-2.558738375193137</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.06295828238814072</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-3.637770360831729</v>
+        <v>-3.702697593068908</v>
       </c>
       <c r="E61">
-        <v>3.763686925608011</v>
+        <v>3.702697593068908</v>
       </c>
       <c r="F61">
         <v>1.141485932947361</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.05971047206252961</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-3.759967387422408</v>
+        <v>-3.702252839287506</v>
       </c>
       <c r="E62">
-        <v>3.64054644329735</v>
+        <v>3.702252839287506</v>
       </c>
       <c r="F62">
         <v>-1.647198057892041</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.07383885979112526</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-3.626212821024611</v>
+        <v>-3.702085122105984</v>
       </c>
       <c r="E63">
-        <v>3.773890540606862</v>
+        <v>3.702085122105984</v>
       </c>
       <c r="F63">
         <v>1.147240116223713</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>-0.06520353768034653</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-3.764781632221608</v>
+        <v>-3.701643446399351</v>
       </c>
       <c r="E64">
-        <v>3.634374556860915</v>
+        <v>3.701643446399351</v>
       </c>
       <c r="F64">
         <v>1.611555535659193</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>-0.0218615098902788</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-3.721292070296061</v>
+        <v>-3.701453279526763</v>
       </c>
       <c r="E65">
-        <v>3.677569050515503</v>
+        <v>3.701453279526763</v>
       </c>
       <c r="F65">
         <v>-2.044569116029038</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>0.07069677134467434</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-3.62883735123707</v>
+        <v>-3.701573618578686</v>
       </c>
       <c r="E66">
-        <v>3.770230893926418</v>
+        <v>3.701573618578686</v>
       </c>
       <c r="F66">
         <v>0.7436264271696302</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.05042849951913325</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-3.749352810787674</v>
+        <v>-3.700982998435871</v>
       </c>
       <c r="E67">
-        <v>3.648495811749407</v>
+        <v>3.700982998435871</v>
       </c>
       <c r="F67">
         <v>-3.274962147164651</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.1206864004233286</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-3.579576836491408</v>
+        <v>-3.702385507212935</v>
       </c>
       <c r="E68">
-        <v>3.820949637338066</v>
+        <v>3.702385507212935</v>
       </c>
       <c r="F68">
         <v>-0.6608937157075445</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.02778797521987131</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-3.727472560633507</v>
+        <v>-3.701772403337383</v>
       </c>
       <c r="E69">
-        <v>3.671896610193765</v>
+        <v>3.701772403337383</v>
       </c>
       <c r="F69">
         <v>-0.6652905955551347</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.0316098231104352</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-3.66745631483841</v>
+        <v>-3.701160802078979</v>
       </c>
       <c r="E70">
-        <v>3.730675961059281</v>
+        <v>3.701160802078979</v>
       </c>
       <c r="F70">
         <v>-1.380585052480576</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.02941521299229932</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-3.669344020913644</v>
+        <v>-3.700835972088114</v>
       </c>
       <c r="E71">
-        <v>3.728174446898243</v>
+        <v>3.700835972088114</v>
       </c>
       <c r="F71">
         <v>1.902403600469604</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>-0.06995180973886805</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-3.768700595822705</v>
+        <v>-3.700846518648232</v>
       </c>
       <c r="E72">
-        <v>3.628796976344969</v>
+        <v>3.700846518648232</v>
       </c>
       <c r="F72">
         <v>-0.6301218076728787</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>0.04676407314623737</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-3.651349222331655</v>
+        <v>-3.700226894060759</v>
       </c>
       <c r="E73">
-        <v>3.74487736862413</v>
+        <v>3.700226894060759</v>
       </c>
       <c r="F73">
         <v>0.2345089917513477</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>-0.02544510795192358</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-3.722868807070312</v>
+        <v>-3.699540741690002</v>
       </c>
       <c r="E74">
-        <v>3.671978591166465</v>
+        <v>3.699540741690002</v>
       </c>
       <c r="F74">
         <v>0.03602954461605634</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.008817065354647801</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-3.687911262866609</v>
+        <v>-3.698844480243616</v>
       </c>
       <c r="E75">
-        <v>3.705545393575905</v>
+        <v>3.698844480243616</v>
       </c>
       <c r="F75">
         <v>-1.46968081228156</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.04178597829378761</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-3.654674230728046</v>
+        <v>-3.698570567226735</v>
       </c>
       <c r="E76">
-        <v>3.738246187315621</v>
+        <v>3.698570567226735</v>
       </c>
       <c r="F76">
         <v>0.1461187474589565</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.02064586226009631</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-3.716412795446431</v>
+        <v>-3.697878931035702</v>
       </c>
       <c r="E77">
-        <v>3.675121070926239</v>
+        <v>3.697878931035702</v>
       </c>
       <c r="F77">
         <v>1.089137649468874</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.02545866091667559</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-3.720771365955694</v>
+        <v>-3.697415277546523</v>
       </c>
       <c r="E78">
-        <v>3.669854044122343</v>
+        <v>3.697415277546523</v>
       </c>
       <c r="F78">
         <v>-0.6338878419924754</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>0.02927596760964249</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-3.665414440882153</v>
+        <v>-3.696798697505301</v>
       </c>
       <c r="E79">
-        <v>3.723966376101437</v>
+        <v>3.696798697505301</v>
       </c>
       <c r="F79">
         <v>1.174040397648923</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>-0.04748038107757602</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-3.741732538142136</v>
+        <v>-3.69637318674938</v>
       </c>
       <c r="E80">
-        <v>3.646771775986984</v>
+        <v>3.69637318674938</v>
       </c>
       <c r="F80">
         <v>-0.865650130562301</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.04512281350314001</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-3.648566103797731</v>
+        <v>-3.695825140520264</v>
       </c>
       <c r="E81">
-        <v>3.738811730804011</v>
+        <v>3.695825140520264</v>
       </c>
       <c r="F81">
         <v>3.453529394486488</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>-0.1260060194863761</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-3.821268858116486</v>
+        <v>-3.697458552167968</v>
       </c>
       <c r="E82">
-        <v>3.569256819143733</v>
+        <v>3.697458552167968</v>
       </c>
       <c r="F82">
         <v>0.2795738322827646</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>0.04034865297802769</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-3.654252629439927</v>
+        <v>-3.696779764264156</v>
       </c>
       <c r="E83">
-        <v>3.734949935395982</v>
+        <v>3.696779764264156</v>
       </c>
       <c r="F83">
         <v>-2.544756509258939</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>0.06499445175188401</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-3.630216544292353</v>
+        <v>-3.697348706015326</v>
       </c>
       <c r="E84">
-        <v>3.760205447796121</v>
+        <v>3.697348706015326</v>
       </c>
       <c r="F84">
         <v>1.580428882078522</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>-0.07415660982997108</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-3.76912213578775</v>
+        <v>-3.697141996590532</v>
       </c>
       <c r="E85">
-        <v>3.620808916127808</v>
+        <v>3.697141996590532</v>
       </c>
       <c r="F85">
         <v>0.07044734352632531</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.02484293795552734</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-3.669433879681997</v>
+        <v>-3.69644977107146</v>
       </c>
       <c r="E86">
-        <v>3.719119755593052</v>
+        <v>3.69644977107146</v>
       </c>
       <c r="F86">
         <v>-2.658260172051818</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>0.07505078181242353</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-3.619936476703169</v>
+        <v>-3.697133248914774</v>
       </c>
       <c r="E87">
-        <v>3.770038040328016</v>
+        <v>3.697133248914774</v>
       </c>
       <c r="F87">
         <v>-1.237054159896189</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.01180380699823186</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-3.682826081367273</v>
+        <v>-3.696738504510529</v>
       </c>
       <c r="E88">
-        <v>3.706433695363737</v>
+        <v>3.696738504510529</v>
       </c>
       <c r="F88">
         <v>-2.427168709711758</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>0.07067850905094686</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-3.624417222807142</v>
+        <v>-3.697192645476169</v>
       </c>
       <c r="E89">
-        <v>3.765774240909035</v>
+        <v>3.697192645476169</v>
       </c>
       <c r="F89">
         <v>-0.3946260876199759</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>-0.0138908587931629</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-3.708336948930818</v>
+        <v>-3.696530777864593</v>
       </c>
       <c r="E90">
-        <v>3.680555231344492</v>
+        <v>3.696530777864593</v>
       </c>
       <c r="F90">
         <v>0.3383461874383542</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>-0.005318011364102732</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-3.699096894476964</v>
+        <v>-3.695861263645277</v>
       </c>
       <c r="E91">
-        <v>3.688460871748758</v>
+        <v>3.695861263645277</v>
       </c>
       <c r="F91">
         <v>-1.760575526699171</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.05625100227891178</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-3.637436356986317</v>
+        <v>-3.695772596727962</v>
       </c>
       <c r="E92">
-        <v>3.749938361544141</v>
+        <v>3.695772596727962</v>
       </c>
       <c r="F92">
         <v>1.309192401829229</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.06121468911406946</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-3.754516561696969</v>
+        <v>-3.695414659121103</v>
       </c>
       <c r="E93">
-        <v>3.63208718346883</v>
+        <v>3.695414659121103</v>
       </c>
       <c r="F93">
         <v>7.724026350365421</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.2104570686493847</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-3.91483202557163</v>
+        <v>-3.706300542433312</v>
       </c>
       <c r="E94">
-        <v>3.493917888272861</v>
+        <v>3.706300542433312</v>
       </c>
       <c r="F94">
         <v>1.455075040102649</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.03179070383960947</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-3.672425833659415</v>
+        <v>-3.70601806405758</v>
       </c>
       <c r="E95">
-        <v>3.736007241338633</v>
+        <v>3.70601806405758</v>
       </c>
       <c r="F95">
         <v>2.143668340297644</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>-0.07465682591572331</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-3.779043431678097</v>
+        <v>-3.706215558246009</v>
       </c>
       <c r="E96">
-        <v>3.62972977984665</v>
+        <v>3.706215558246009</v>
       </c>
       <c r="F96">
         <v>1.950224323144134</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.02716765140730837</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-3.731656208243582</v>
+        <v>-3.706259638067994</v>
       </c>
       <c r="E97">
-        <v>3.677320905428965</v>
+        <v>3.706259638067994</v>
       </c>
       <c r="F97">
         <v>2.57469004603017</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>-0.06155809143946156</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-3.76666390306015</v>
+        <v>-3.706850266526671</v>
       </c>
       <c r="E98">
-        <v>3.643547720181227</v>
+        <v>3.706850266526671</v>
       </c>
       <c r="F98">
         <v>-2.70683410225967</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.1014078520273141</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-3.604359647973118</v>
+        <v>-3.707575278940932</v>
       </c>
       <c r="E99">
-        <v>3.807175352027746</v>
+        <v>3.707575278940932</v>
       </c>
       <c r="F99">
         <v>-0.08267879759937813</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>-0.03749709771833709</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-3.74257997159794</v>
+        <v>-3.706885081838966</v>
       </c>
       <c r="E100">
-        <v>3.667585776161265</v>
+        <v>3.706885081838966</v>
       </c>
       <c r="F100">
         <v>-0.5474012176028609</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.03052725436725515</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-3.673914939614726</v>
+        <v>-3.706251853399453</v>
       </c>
       <c r="E101">
-        <v>3.734969448349236</v>
+        <v>3.706251853399453</v>
       </c>
       <c r="F101">
         <v>-0.4334062460220167</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>0.0002693812380943073</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-3.703524046273419</v>
+        <v>-3.705597388023407</v>
       </c>
       <c r="E102">
-        <v>3.704062808749607</v>
+        <v>3.705597388023407</v>
       </c>
       <c r="F102">
         <v>-0.620027122473843</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>0.01745861899367332</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-3.685719033224994</v>
+        <v>-3.704981268566316</v>
       </c>
       <c r="E103">
-        <v>3.72063627121234</v>
+        <v>3.704981268566316</v>
       </c>
       <c r="F103">
         <v>0.4695631636348452</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.02021657943046967</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-3.72274403791714</v>
+        <v>-3.704333844905129</v>
       </c>
       <c r="E104">
-        <v>3.6823108790562</v>
+        <v>3.704333844905129</v>
       </c>
       <c r="F104">
         <v>3.291394687164484</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>-0.08458453917586284</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-3.788540635603654</v>
+        <v>-3.705735362786622</v>
       </c>
       <c r="E105">
-        <v>3.619371557251927</v>
+        <v>3.705735362786622</v>
       </c>
       <c r="F105">
         <v>2.051025270312046</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.02292060534753948</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-3.727066431598261</v>
+        <v>-3.7058572813508</v>
       </c>
       <c r="E106">
-        <v>3.681225220903181</v>
+        <v>3.7058572813508</v>
       </c>
       <c r="F106">
         <v>0.09511731852196448</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.006672838500422364</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-3.696786588402266</v>
+        <v>-3.705169628529127</v>
       </c>
       <c r="E107">
-        <v>3.710132265403111</v>
+        <v>3.705169628529127</v>
       </c>
       <c r="F107">
         <v>-1.323888863035094</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.03343811561864585</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-3.669674115461762</v>
+        <v>-3.704818561076157</v>
       </c>
       <c r="E108">
-        <v>3.736550346699053</v>
+        <v>3.704818561076157</v>
       </c>
       <c r="F108">
         <v>0.6880577589132741</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.03245301894078673</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-3.734959504559986</v>
+        <v>-3.704221130685654</v>
       </c>
       <c r="E109">
-        <v>3.670053466678413</v>
+        <v>3.704221130685654</v>
       </c>
       <c r="F109">
         <v>1.173126960546611</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>-0.01908535359032443</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-3.721184136804657</v>
+        <v>-3.703798038150093</v>
       </c>
       <c r="E110">
-        <v>3.683013429624007</v>
+        <v>3.703798038150093</v>
       </c>
       <c r="F110">
         <v>-0.4264398786457235</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>0.01936975624267551</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-3.682073373806832</v>
+        <v>-3.703145086613302</v>
       </c>
       <c r="E111">
-        <v>3.720812886292183</v>
+        <v>3.703145086613302</v>
       </c>
       <c r="F111">
         <v>-1.933739839992299</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>0.04496635860367748</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-3.656524540028097</v>
+        <v>-3.703177766237592</v>
       </c>
       <c r="E112">
-        <v>3.746457257235452</v>
+        <v>3.703177766237592</v>
       </c>
       <c r="F112">
         <v>-0.4690667718941555</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.005321750407443371</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-3.706176451640192</v>
+        <v>-3.702532771351878</v>
       </c>
       <c r="E113">
-        <v>3.695532950825306</v>
+        <v>3.702532771351878</v>
       </c>
       <c r="F113">
         <v>1.224636639215682</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.0312256770625074</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-3.731685128544601</v>
+        <v>-3.70213451843229</v>
       </c>
       <c r="E114">
-        <v>3.669233774419586</v>
+        <v>3.70213451843229</v>
       </c>
       <c r="F114">
         <v>1.446881111991694</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>-0.02658152341349573</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-3.726775135476639</v>
+        <v>-3.701850789958562</v>
       </c>
       <c r="E115">
-        <v>3.673612088649648</v>
+        <v>3.701850789958562</v>
       </c>
       <c r="F115">
         <v>-1.095162124310178</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>0.04044531720212541</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-3.659282122712977</v>
+        <v>-3.701395220082124</v>
       </c>
       <c r="E116">
-        <v>3.740172757117228</v>
+        <v>3.701395220082124</v>
       </c>
       <c r="F116">
         <v>-0.7207526997117242</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>0.003286667507938767</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-3.695866561684098</v>
+        <v>-3.700809140830799</v>
       </c>
       <c r="E117">
-        <v>3.702439896699975</v>
+        <v>3.700809140830799</v>
       </c>
       <c r="F117">
         <v>-2.226829113583761</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.05871757189538063</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-3.640706824758074</v>
+        <v>-3.701077120472033</v>
       </c>
       <c r="E118">
-        <v>3.758141968548835</v>
+        <v>3.701077120472033</v>
       </c>
       <c r="F118">
         <v>2.451620473495453</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.09137993962479118</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-3.791219952466187</v>
+        <v>-3.701547011188806</v>
       </c>
       <c r="E119">
-        <v>3.608460073216605</v>
+        <v>3.701547011188806</v>
       </c>
       <c r="F119">
         <v>-2.270981619876622</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>0.1017895902617434</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-3.598277631613662</v>
+        <v>-3.7018526161289</v>
       </c>
       <c r="E120">
-        <v>3.801856812137149</v>
+        <v>3.7018526161289</v>
       </c>
       <c r="F120">
         <v>-1.704351671831539</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>0.007039148609777945</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-3.692969479702846</v>
+        <v>-3.701725415697349</v>
       </c>
       <c r="E121">
-        <v>3.707047776922402</v>
+        <v>3.701725415697349</v>
       </c>
       <c r="F121">
         <v>1.540148022457188</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.04626602368472665</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-3.746041517350455</v>
+        <v>-3.701496026751601</v>
       </c>
       <c r="E122">
-        <v>3.653509469981002</v>
+        <v>3.701496026751601</v>
       </c>
       <c r="F122">
         <v>0.1806091944855481</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>0.0129269383352047</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-3.686174209230027</v>
+        <v>-3.700817776432767</v>
       </c>
       <c r="E123">
-        <v>3.712028085900437</v>
+        <v>3.700817776432767</v>
       </c>
       <c r="F123">
         <v>0.08198737853692961</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.00729547887781145</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-3.705713722115969</v>
+        <v>-3.700134933374069</v>
       </c>
       <c r="E124">
-        <v>3.691122764360347</v>
+        <v>3.700134933374069</v>
       </c>
       <c r="F124">
         <v>-1.037986088506848</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>0.03161180088204163</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-3.666326872493788</v>
+        <v>-3.699657901951488</v>
       </c>
       <c r="E125">
-        <v>3.729550474257872</v>
+        <v>3.699657901951488</v>
       </c>
       <c r="F125">
         <v>3.450863246366254</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>-0.1092367842966511</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-3.808735174444657</v>
+        <v>-3.701258162141547</v>
       </c>
       <c r="E126">
-        <v>3.590261605851355</v>
+        <v>3.701258162141547</v>
       </c>
       <c r="F126">
         <v>-1.029278948543144</v>
